--- a/doc/結合テスト/結合テスト仕様書.xlsx
+++ b/doc/結合テスト/結合テスト仕様書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8048B6-0E9D-4990-A751-58B9E6AE6974}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A526E-D445-4478-8A3C-382417BBAB4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="361">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="2"/>
@@ -216,12 +216,6 @@
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
   <si>
     <t>12</t>
@@ -1062,30 +1056,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>IISからアプリケーションを参照すると、JSON形式でない旨のメッセージが表示される</t>
-    <rPh sb="14" eb="16">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ムネ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LinkCameraAndName.jsonファイルのキーが不正</t>
-    <rPh sb="30" eb="32">
-      <t>フセイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1989,84 +1960,6 @@
   </si>
   <si>
     <t>全角文字</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3.表示内容
-3.1.許容文字
-3.1.1.半角文字を許容</t>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キョヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キョヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3.表示内容
-3.1.許容文字
-3.1.2.全角文字を許容</t>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キョヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キョヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>3.表示内容
-3.2.最大文字数
-3.2.1.半角は17文字</t>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>モジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2657,70 +2550,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>LinkCameraAndName.jsonの"name"に半角文字を設定する(17文字未満)
-IISを再起動し、座席監視アプリを起動する</t>
-    <rPh sb="30" eb="32">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LinkCameraAndName.jsonの"name"に半角文字を設定する(18文字未満)
-IISを再起動し、座席監視アプリを起動する</t>
-    <rPh sb="30" eb="32">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ウインドウが最小化される</t>
     <rPh sb="6" eb="9">
       <t>サイショウカ</t>
@@ -2802,128 +2631,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>LinkCameraAndName.jsonの"name"に半角文字を設定する(17文字)
-IISを再起動し、座席監視アプリを起動する</t>
-    <rPh sb="30" eb="32">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LinkCameraAndName.jsonの"name"に半角文字を設定する(10文字)
-IISを再起動し、座席監視アプリを起動する</t>
-    <rPh sb="30" eb="32">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LinkCameraAndName.jsonの"name"に半角文字を設定する(18文字以上)
-IISを再起動し、座席監視アプリを起動する</t>
-    <rPh sb="30" eb="32">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>LinkCameraAndName.jsonの"name"に半角文字を設定する(11文字以上)
-IISを再起動し、座席監視アプリを起動する</t>
-    <rPh sb="30" eb="32">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="52" eb="55">
-      <t>サイキドウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>LinkCameraAndName.jsonに設定した文字列がアプリ画面に17文字目まで表示され、それ以降は"..."と表示される</t>
     <rPh sb="23" eb="25">
       <t>セッテイ</t>
@@ -2949,31 +2656,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>LinkCameraAndName.jsonに設定した文字列がアプリ画面に10文字目まで表示され、それ以降は"..."と表示される</t>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>モジメ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>監視結果リストの要素数が0</t>
     <rPh sb="0" eb="2">
       <t>カンシ</t>
@@ -2986,105 +2668,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>監視結果リストの要素数が1
-名前が設定の通り
-アイコンが在席
-ツールチップが在席</t>
-    <rPh sb="0" eb="2">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ザイセキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ザイセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>監視結果リストの要素数が1
-名前が設定の通り
-アイコンが離席
-ツールチップが離席</t>
-    <rPh sb="0" eb="2">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>リセキ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>リセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>監視結果リストの要素数が1
-名前が設定の通り
-アイコンが不明
-ツールチップが不明</t>
-    <rPh sb="0" eb="2">
-      <t>カンシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トオ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>フメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3194,6 +2777,437 @@
     <rPh sb="58" eb="60">
       <t>セツゾク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IISからアプリケーションを参照すると、「Additional text encountered after finished reading JSON content」と表示される</t>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LinkCameraAndName.jsonファイルのキーが不正(DeviceInstansePathをMonikerに変更、Nameをnamaeに変更)</t>
+    <rPh sb="30" eb="32">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>3.表示内容
+3.1.許容文字
+3.1.1.半角文字(0～9、a～Z、()、スペース、-)を許容</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.表示内容
+3.1.許容文字
+3.1.2.全角文字(０～９、Ａ～Ｚ、スペース、日本語)を許容</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キョヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LinkCameraAndName.jsonの"name"に"あいうえおかきくけこさ"を設定する(11文字)
+IISを再起動し、座席監視アプリを起動する</t>
+    <rPh sb="44" eb="46">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが在席アイコン
+ツールチップが在席</t>
+    <rPh sb="0" eb="2">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ザイセキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ザイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが離席アイコン
+ツールチップが離席</t>
+    <rPh sb="0" eb="2">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リセキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>リセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が1
+名前が設定の通り
+アイコンが状態取得失敗アイコン
+ツールチップが不明</t>
+    <rPh sb="0" eb="2">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.表示内容
+3.2.最大文字数
+3.2.1.半角は20文字</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LinkCameraAndName.jsonの"name"に"abcdefghijklmnopqrst"を設定する(20文字)
+IISを再起動し、座席監視アプリを起動する</t>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LinkCameraAndName.jsonの"name"に"あいうえおかきくけこ"を設定する(10文字)
+IISを再起動し、座席監視アプリを起動する</t>
+    <rPh sb="43" eb="45">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LinkCameraAndName.jsonの"name"を"09azAZ ()-"に設定する(20文字未満)
+IISを再起動し、座席監視アプリを起動する</t>
+    <rPh sb="43" eb="45">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LinkCameraAndName.jsonの"name"に"abcdefghijklmnopqrstu"を設定する(21文字)
+IISを再起動し、座席監視アプリを起動する</t>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LinkCameraAndName.jsonの"name"を"０９ａＺ　あア試"に設定する(10文字未満)
+IISを再起動し、座席監視アプリを起動する</t>
+    <rPh sb="38" eb="39">
+      <t>タメシ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LinkCameraAndName.jsonに設定した文字列がアプリ画面に8文字目まで表示され、それ以降は"..."と表示される</t>
+    <rPh sb="23" eb="25">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>モジメ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字の幅が統一されたフォントを使用することで解決する見込み</t>
+    <rPh sb="0" eb="2">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>杉田</t>
+    <rPh sb="0" eb="2">
+      <t>スギタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＡＬＬ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6,8,9</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4010,7 +4024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4263,56 +4277,59 @@
     <xf numFmtId="0" fontId="26" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4338,8 +4355,26 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="12" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="13" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="17" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="18" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="25" borderId="19" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="25" borderId="12" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4353,9 +4388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="12" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4380,24 +4412,6 @@
     <xf numFmtId="0" fontId="27" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="13" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="17" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="18" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="25" borderId="19" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4462,6 +4476,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4961,12 +4978,12 @@
     </row>
     <row r="9" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD9" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AD10" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -5365,7 +5382,7 @@
       <c r="M2" s="38"/>
       <c r="N2" s="39"/>
       <c r="O2" s="44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P2" s="45"/>
       <c r="Q2" s="45"/>
@@ -5378,7 +5395,7 @@
       <c r="X2" s="45"/>
       <c r="Y2" s="46"/>
       <c r="Z2" s="40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA2" s="41"/>
       <c r="AB2" s="42" t="e">
@@ -5422,10 +5439,10 @@
     </row>
     <row r="5" spans="1:30" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
@@ -5456,7 +5473,7 @@
     <row r="6" spans="1:30" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="18"/>
       <c r="C6" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
@@ -5546,7 +5563,7 @@
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="22"/>
@@ -5579,7 +5596,7 @@
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="D10" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -5640,7 +5657,7 @@
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="22"/>
@@ -5674,13 +5691,13 @@
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="51"/>
       <c r="H13" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I13" s="50"/>
       <c r="J13" s="50"/>
@@ -5709,13 +5726,13 @@
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E14" s="53"/>
       <c r="F14" s="53"/>
       <c r="G14" s="54"/>
       <c r="H14" s="55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I14" s="56"/>
       <c r="J14" s="56"/>
@@ -5744,13 +5761,13 @@
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
       <c r="G15" s="47"/>
       <c r="H15" s="48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
@@ -5780,13 +5797,13 @@
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="47"/>
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
       <c r="H16" s="48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
@@ -5816,13 +5833,13 @@
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="47"/>
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
       <c r="H17" s="48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
@@ -5852,13 +5869,13 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" s="47"/>
       <c r="F18" s="47"/>
       <c r="G18" s="47"/>
       <c r="H18" s="48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
@@ -5888,13 +5905,13 @@
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
@@ -5924,13 +5941,13 @@
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E20" s="47"/>
       <c r="F20" s="47"/>
       <c r="G20" s="47"/>
       <c r="H20" s="48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
@@ -5960,13 +5977,13 @@
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="47"/>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
       <c r="H21" s="48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="48"/>
@@ -5996,13 +6013,13 @@
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="48"/>
@@ -6032,13 +6049,13 @@
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I23" s="48"/>
       <c r="J23" s="48"/>
@@ -6068,13 +6085,13 @@
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I24" s="48"/>
       <c r="J24" s="48"/>
@@ -6104,13 +6121,13 @@
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="47" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
       <c r="H25" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
@@ -6140,13 +6157,13 @@
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47"/>
       <c r="G26" s="47"/>
       <c r="H26" s="48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -6176,13 +6193,13 @@
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47"/>
       <c r="G27" s="47"/>
       <c r="H27" s="48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="48"/>
@@ -6212,13 +6229,13 @@
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E28" s="47"/>
       <c r="F28" s="47"/>
       <c r="G28" s="47"/>
       <c r="H28" s="48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I28" s="48"/>
       <c r="J28" s="48"/>
@@ -6248,13 +6265,13 @@
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47"/>
       <c r="G29" s="47"/>
       <c r="H29" s="48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I29" s="48"/>
       <c r="J29" s="48"/>
@@ -6284,13 +6301,13 @@
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I30" s="48"/>
       <c r="J30" s="48"/>
@@ -6320,13 +6337,13 @@
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
       <c r="H31" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I31" s="48"/>
       <c r="J31" s="48"/>
@@ -6356,13 +6373,13 @@
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
       <c r="H32" s="48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I32" s="48"/>
       <c r="J32" s="48"/>
@@ -6392,13 +6409,13 @@
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" s="47"/>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
       <c r="H33" s="48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I33" s="48"/>
       <c r="J33" s="48"/>
@@ -6428,13 +6445,13 @@
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E34" s="47"/>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
       <c r="H34" s="48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I34" s="48"/>
       <c r="J34" s="48"/>
@@ -6464,13 +6481,13 @@
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
       <c r="G35" s="47"/>
       <c r="H35" s="48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I35" s="48"/>
       <c r="J35" s="48"/>
@@ -6500,13 +6517,13 @@
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E36" s="47"/>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
       <c r="H36" s="48" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I36" s="48"/>
       <c r="J36" s="48"/>
@@ -6536,13 +6553,13 @@
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
       <c r="H37" s="48" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="48"/>
@@ -6572,13 +6589,13 @@
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
       <c r="D38" s="47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E38" s="47"/>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
       <c r="H38" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="48"/>
@@ -6608,13 +6625,13 @@
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
       <c r="H39" s="48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I39" s="48"/>
       <c r="J39" s="48"/>
@@ -6644,13 +6661,13 @@
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E40" s="47"/>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
       <c r="H40" s="48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="48"/>
@@ -6710,7 +6727,7 @@
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D42" s="22"/>
       <c r="F42" s="22"/>
@@ -6744,7 +6761,7 @@
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
       <c r="D43" s="22" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
@@ -7023,7 +7040,7 @@
       <c r="X2" s="83"/>
       <c r="Y2" s="83"/>
       <c r="Z2" s="40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="41"/>
       <c r="AB2" s="42" t="e">
@@ -7065,21 +7082,21 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="B6" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="2:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="79" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="79"/>
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
       <c r="G18" s="79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
@@ -7091,7 +7108,7 @@
       <c r="O18" s="79"/>
       <c r="P18" s="79"/>
       <c r="Q18" s="80" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R18" s="80"/>
       <c r="S18" s="80"/>
@@ -7109,13 +7126,13 @@
         <v>1</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
       <c r="F19" s="58"/>
       <c r="G19" s="58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H19" s="58"/>
       <c r="I19" s="58"/>
@@ -7127,7 +7144,7 @@
       <c r="O19" s="58"/>
       <c r="P19" s="78"/>
       <c r="Q19" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R19" s="60"/>
       <c r="S19" s="60"/>
@@ -7257,13 +7274,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
       <c r="F24" s="58"/>
       <c r="G24" s="58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H24" s="58"/>
       <c r="I24" s="58"/>
@@ -7275,7 +7292,7 @@
       <c r="O24" s="58"/>
       <c r="P24" s="58"/>
       <c r="Q24" s="59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R24" s="60"/>
       <c r="S24" s="60"/>
@@ -7321,13 +7338,13 @@
         <v>3</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
       <c r="G26" s="59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" s="60"/>
       <c r="I26" s="60"/>
@@ -7339,7 +7356,7 @@
       <c r="O26" s="60"/>
       <c r="P26" s="61"/>
       <c r="Q26" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R26" s="60"/>
       <c r="S26" s="60"/>
@@ -7441,13 +7458,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H30" s="58"/>
       <c r="I30" s="58"/>
@@ -7459,7 +7476,7 @@
       <c r="O30" s="58"/>
       <c r="P30" s="58"/>
       <c r="Q30" s="58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R30" s="58"/>
       <c r="S30" s="58"/>
@@ -7477,13 +7494,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H31" s="58"/>
       <c r="I31" s="58"/>
@@ -7513,7 +7530,7 @@
       <c r="E32" s="58"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H32" s="58"/>
       <c r="I32" s="58"/>
@@ -7541,13 +7558,13 @@
         <v>6</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H33" s="58"/>
       <c r="I33" s="58"/>
@@ -7575,13 +7592,13 @@
         <v>7</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
       <c r="F34" s="58"/>
       <c r="G34" s="59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H34" s="60"/>
       <c r="I34" s="60"/>
@@ -7917,13 +7934,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
       <c r="G46" s="59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H46" s="60"/>
       <c r="I46" s="60"/>
@@ -7951,13 +7968,13 @@
         <v>9</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="58"/>
       <c r="F47" s="58"/>
       <c r="G47" s="58" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H47" s="58"/>
       <c r="I47" s="58"/>
@@ -7985,13 +8002,13 @@
         <v>10</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="58"/>
       <c r="F48" s="58"/>
       <c r="G48" s="58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H48" s="58"/>
       <c r="I48" s="58"/>
@@ -8019,13 +8036,13 @@
         <v>11</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D49" s="58"/>
       <c r="E49" s="58"/>
       <c r="F49" s="58"/>
       <c r="G49" s="58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H49" s="58"/>
       <c r="I49" s="58"/>
@@ -8053,13 +8070,13 @@
         <v>12</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50" s="60"/>
       <c r="E50" s="60"/>
       <c r="F50" s="61"/>
       <c r="G50" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H50" s="60"/>
       <c r="I50" s="60"/>
@@ -8115,13 +8132,13 @@
         <v>13</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" s="58"/>
       <c r="E52" s="58"/>
       <c r="F52" s="58"/>
       <c r="G52" s="58" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H52" s="58"/>
       <c r="I52" s="58"/>
@@ -8133,7 +8150,7 @@
       <c r="O52" s="58"/>
       <c r="P52" s="58"/>
       <c r="Q52" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R52" s="58"/>
       <c r="S52" s="58"/>
@@ -8151,13 +8168,13 @@
         <v>14</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="58"/>
       <c r="E53" s="58"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H53" s="58"/>
       <c r="I53" s="58"/>
@@ -8169,7 +8186,7 @@
       <c r="O53" s="58"/>
       <c r="P53" s="58"/>
       <c r="Q53" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R53" s="58"/>
       <c r="S53" s="58"/>
@@ -8187,13 +8204,13 @@
         <v>15</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D54" s="58"/>
       <c r="E54" s="58"/>
       <c r="F54" s="58"/>
       <c r="G54" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H54" s="60"/>
       <c r="I54" s="60"/>
@@ -8305,13 +8322,13 @@
         <v>16</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D58" s="58"/>
       <c r="E58" s="58"/>
       <c r="F58" s="58"/>
       <c r="G58" s="59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H58" s="60"/>
       <c r="I58" s="60"/>
@@ -8423,13 +8440,13 @@
         <v>17</v>
       </c>
       <c r="C62" s="58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D62" s="58"/>
       <c r="E62" s="58"/>
       <c r="F62" s="58"/>
       <c r="G62" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H62" s="60"/>
       <c r="I62" s="60"/>
@@ -8644,465 +8661,465 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="93"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="84" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="92" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B8" s="99"/>
+      <c r="C8" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B10" s="99"/>
+      <c r="C10" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="99"/>
+      <c r="F11" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="D16" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="99"/>
+      <c r="C18" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="94" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="30" t="s">
+      <c r="D19" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="85" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="30" t="s">
+      <c r="G21" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="30" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="93"/>
-      <c r="C8" s="93" t="s">
+      <c r="G22" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="86"/>
+      <c r="G24" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="86"/>
+      <c r="G28" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="F29" s="86"/>
+      <c r="G29" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="99" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="99"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="93"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="93"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="99"/>
+      <c r="C36" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="85" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="93"/>
-      <c r="C10" s="93" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10" s="85" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="85" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="93" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="85" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="93"/>
-      <c r="C18" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="93"/>
-      <c r="C19" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="E19" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="88" t="s">
-        <v>274</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="D36" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="85"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="85"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="99"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="84" t="s">
         <v>267</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="85" t="s">
-        <v>253</v>
-      </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="91" t="s">
-        <v>254</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29" s="93"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="85" t="s">
-        <v>256</v>
-      </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="93" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="94" t="s">
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="30" t="s">
         <v>259</v>
-      </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="93"/>
-      <c r="C36" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="D36" s="85" t="s">
-        <v>269</v>
-      </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B37" s="93"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B38" s="93"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="85" t="s">
-        <v>271</v>
-      </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="30" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -9114,6 +9131,7 @@
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C19:C35"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D19:D33"/>
     <mergeCell ref="E25:E27"/>
@@ -9122,11 +9140,6 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="D11:E13"/>
     <mergeCell ref="E30:E33"/>
     <mergeCell ref="D9:F9"/>
@@ -9134,14 +9147,18 @@
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
-    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D38:F38"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9153,8 +9170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BE23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22:AK22"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9180,42 +9197,42 @@
       <c r="B2" s="147"/>
       <c r="C2" s="148"/>
       <c r="D2" s="143" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="144"/>
       <c r="F2" s="144"/>
       <c r="G2" s="145"/>
-      <c r="H2" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="H2" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
       <c r="K2" s="140" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L2" s="141"/>
       <c r="M2" s="141"/>
       <c r="N2" s="141"/>
       <c r="O2" s="142"/>
-      <c r="P2" s="123" t="s">
+      <c r="P2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
       <c r="S2" s="140" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T2" s="141"/>
       <c r="U2" s="141"/>
       <c r="V2" s="141"/>
       <c r="W2" s="142"/>
-      <c r="X2" s="123" t="s">
+      <c r="X2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
       <c r="AA2" s="143" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AB2" s="144"/>
       <c r="AC2" s="144"/>
@@ -9249,11 +9266,11 @@
       <c r="AW2" s="136"/>
       <c r="AX2" s="136"/>
       <c r="AY2" s="136"/>
-      <c r="AZ2" s="117" t="s">
+      <c r="AZ2" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="BA2" s="118"/>
-      <c r="BB2" s="119"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="125"/>
       <c r="BC2" s="136" t="s">
         <v>32</v>
       </c>
@@ -9267,7 +9284,7 @@
       <c r="B3" s="147"/>
       <c r="C3" s="148"/>
       <c r="D3" s="149" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -9314,25 +9331,31 @@
       <c r="AS3" s="134"/>
       <c r="AT3" s="133"/>
       <c r="AU3" s="133"/>
-      <c r="AV3" s="135"/>
+      <c r="AV3" s="135">
+        <v>43866</v>
+      </c>
       <c r="AW3" s="135"/>
       <c r="AX3" s="135"/>
       <c r="AY3" s="135"/>
-      <c r="AZ3" s="132"/>
+      <c r="AZ3" s="132" t="s">
+        <v>358</v>
+      </c>
       <c r="BA3" s="129"/>
       <c r="BB3" s="130"/>
-      <c r="BC3" s="131"/>
+      <c r="BC3" s="131" t="s">
+        <v>359</v>
+      </c>
       <c r="BD3" s="131"/>
       <c r="BE3" s="131"/>
     </row>
     <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="150" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" s="150"/>
       <c r="F4" s="150"/>
@@ -9391,9 +9414,9 @@
       <c r="BE4" s="131"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="150"/>
       <c r="E5" s="150"/>
       <c r="F5" s="150"/>
@@ -9452,9 +9475,9 @@
       <c r="BE5" s="131"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A6" s="123"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="150"/>
       <c r="E6" s="150"/>
       <c r="F6" s="150"/>
@@ -9514,55 +9537,55 @@
     </row>
     <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="111"/>
+      <c r="A9" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="118"/>
       <c r="C9" s="136" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="136"/>
       <c r="E9" s="136"/>
       <c r="F9" s="136"/>
       <c r="G9" s="136"/>
       <c r="H9" s="136"/>
-      <c r="I9" s="114" t="s">
+      <c r="I9" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="114" t="s">
+      <c r="J9" s="113"/>
+      <c r="K9" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="114" t="s">
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="114" t="s">
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="115"/>
-      <c r="AC9" s="115"/>
-      <c r="AD9" s="115"/>
-      <c r="AE9" s="115"/>
-      <c r="AF9" s="115"/>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="115"/>
-      <c r="AJ9" s="115"/>
-      <c r="AK9" s="116"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="121"/>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="122"/>
       <c r="AL9" s="136" t="s">
         <v>20</v>
       </c>
@@ -9593,47 +9616,47 @@
       <c r="BE9" s="136"/>
     </row>
     <row r="10" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="136"/>
       <c r="D10" s="136"/>
       <c r="E10" s="136"/>
       <c r="F10" s="136"/>
       <c r="G10" s="136"/>
       <c r="H10" s="136"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="117" t="s">
+      <c r="I10" s="114"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="119"/>
-      <c r="AG10" s="120" t="s">
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="124"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="121"/>
-      <c r="AJ10" s="121"/>
-      <c r="AK10" s="122"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="127"/>
+      <c r="AJ10" s="127"/>
+      <c r="AK10" s="128"/>
       <c r="AL10" s="16" t="s">
         <v>11</v>
       </c>
@@ -9680,953 +9703,1005 @@
       <c r="BE10" s="136"/>
     </row>
     <row r="11" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="101" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="104" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="103"/>
+      <c r="K11" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="J11" s="102"/>
-      <c r="K11" s="106" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="107" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH11" s="107"/>
-      <c r="AI11" s="107"/>
-      <c r="AJ11" s="107"/>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="109"/>
-      <c r="AO11" s="109"/>
-      <c r="AP11" s="109"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="107" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="108"/>
+      <c r="AJ11" s="108"/>
+      <c r="AK11" s="109"/>
+      <c r="AL11" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM11" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN11" s="101"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="101"/>
       <c r="AQ11" s="14"/>
       <c r="AR11" s="14"/>
-      <c r="AS11" s="109"/>
-      <c r="AT11" s="109"/>
-      <c r="AU11" s="109"/>
+      <c r="AS11" s="101"/>
+      <c r="AT11" s="101"/>
+      <c r="AU11" s="101"/>
       <c r="AV11" s="14"/>
       <c r="AW11" s="14"/>
-      <c r="AX11" s="109"/>
-      <c r="AY11" s="109"/>
-      <c r="AZ11" s="109"/>
+      <c r="AX11" s="101"/>
+      <c r="AY11" s="101"/>
+      <c r="AZ11" s="101"/>
       <c r="BA11" s="14"/>
       <c r="BB11" s="14"/>
-      <c r="BC11" s="109"/>
-      <c r="BD11" s="109"/>
-      <c r="BE11" s="109"/>
+      <c r="BC11" s="101"/>
+      <c r="BD11" s="101"/>
+      <c r="BE11" s="101"/>
     </row>
     <row r="12" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="103"/>
+      <c r="K12" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="107" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="102"/>
-      <c r="K12" s="106" t="s">
-        <v>182</v>
-      </c>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="106" t="s">
-        <v>176</v>
-      </c>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="106" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="107" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="107"/>
-      <c r="AJ12" s="107"/>
-      <c r="AK12" s="108"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="109"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="109"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="109"/>
+      <c r="AL12" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM12" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN12" s="101"/>
+      <c r="AO12" s="101"/>
+      <c r="AP12" s="101"/>
       <c r="AQ12" s="14"/>
       <c r="AR12" s="14"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="109"/>
-      <c r="AU12" s="109"/>
+      <c r="AS12" s="101"/>
+      <c r="AT12" s="101"/>
+      <c r="AU12" s="101"/>
       <c r="AV12" s="14"/>
       <c r="AW12" s="14"/>
-      <c r="AX12" s="109"/>
-      <c r="AY12" s="109"/>
-      <c r="AZ12" s="109"/>
+      <c r="AX12" s="101"/>
+      <c r="AY12" s="101"/>
+      <c r="AZ12" s="101"/>
       <c r="BA12" s="14"/>
       <c r="BB12" s="14"/>
-      <c r="BC12" s="109"/>
-      <c r="BD12" s="109"/>
-      <c r="BE12" s="109"/>
+      <c r="BC12" s="101"/>
+      <c r="BD12" s="101"/>
+      <c r="BE12" s="101"/>
     </row>
     <row r="13" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="103"/>
+      <c r="K13" s="107" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="106" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="106" t="s">
-        <v>176</v>
-      </c>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="107" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="107"/>
-      <c r="AK13" s="108"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="109"/>
-      <c r="AO13" s="109"/>
-      <c r="AP13" s="109"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM13" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN13" s="101"/>
+      <c r="AO13" s="101"/>
+      <c r="AP13" s="101"/>
       <c r="AQ13" s="14"/>
       <c r="AR13" s="14"/>
-      <c r="AS13" s="109"/>
-      <c r="AT13" s="109"/>
-      <c r="AU13" s="109"/>
+      <c r="AS13" s="101"/>
+      <c r="AT13" s="101"/>
+      <c r="AU13" s="101"/>
       <c r="AV13" s="14"/>
       <c r="AW13" s="14"/>
-      <c r="AX13" s="109"/>
-      <c r="AY13" s="109"/>
-      <c r="AZ13" s="109"/>
+      <c r="AX13" s="101"/>
+      <c r="AY13" s="101"/>
+      <c r="AZ13" s="101"/>
       <c r="BA13" s="14"/>
       <c r="BB13" s="14"/>
-      <c r="BC13" s="109"/>
-      <c r="BD13" s="109"/>
-      <c r="BE13" s="109"/>
+      <c r="BC13" s="101"/>
+      <c r="BD13" s="101"/>
+      <c r="BE13" s="101"/>
     </row>
     <row r="14" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103" t="s">
+      <c r="A14" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="103"/>
+      <c r="K14" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="106" t="s">
-        <v>176</v>
-      </c>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="107" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="107"/>
-      <c r="AJ14" s="107"/>
-      <c r="AK14" s="108"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="109"/>
-      <c r="AO14" s="109"/>
-      <c r="AP14" s="109"/>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="108" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="108"/>
+      <c r="AJ14" s="108"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM14" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN14" s="101"/>
+      <c r="AO14" s="101"/>
+      <c r="AP14" s="101"/>
       <c r="AQ14" s="14"/>
       <c r="AR14" s="14"/>
-      <c r="AS14" s="109"/>
-      <c r="AT14" s="109"/>
-      <c r="AU14" s="109"/>
+      <c r="AS14" s="101"/>
+      <c r="AT14" s="101"/>
+      <c r="AU14" s="101"/>
       <c r="AV14" s="14"/>
       <c r="AW14" s="14"/>
-      <c r="AX14" s="109"/>
-      <c r="AY14" s="109"/>
-      <c r="AZ14" s="109"/>
+      <c r="AX14" s="101"/>
+      <c r="AY14" s="101"/>
+      <c r="AZ14" s="101"/>
       <c r="BA14" s="14"/>
       <c r="BB14" s="14"/>
-      <c r="BC14" s="109"/>
-      <c r="BD14" s="109"/>
-      <c r="BE14" s="109"/>
+      <c r="BC14" s="101"/>
+      <c r="BD14" s="101"/>
+      <c r="BE14" s="101"/>
     </row>
     <row r="15" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103" t="s">
+      <c r="A15" s="102" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" s="103"/>
+      <c r="K15" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="107" t="s">
+        <v>174</v>
+      </c>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="109"/>
+      <c r="AA15" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="106" t="s">
-        <v>189</v>
-      </c>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="106" t="s">
-        <v>176</v>
-      </c>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="108"/>
-      <c r="AA15" s="106" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="107" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH15" s="107"/>
-      <c r="AI15" s="107"/>
-      <c r="AJ15" s="107"/>
-      <c r="AK15" s="108"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="109"/>
-      <c r="AO15" s="109"/>
-      <c r="AP15" s="109"/>
+      <c r="AB15" s="108"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="109"/>
+      <c r="AG15" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="108"/>
+      <c r="AJ15" s="108"/>
+      <c r="AK15" s="109"/>
+      <c r="AL15" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM15" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN15" s="101"/>
+      <c r="AO15" s="101"/>
+      <c r="AP15" s="101"/>
       <c r="AQ15" s="14"/>
       <c r="AR15" s="14"/>
-      <c r="AS15" s="109"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="109"/>
+      <c r="AS15" s="101"/>
+      <c r="AT15" s="101"/>
+      <c r="AU15" s="101"/>
       <c r="AV15" s="14"/>
       <c r="AW15" s="14"/>
-      <c r="AX15" s="109"/>
-      <c r="AY15" s="109"/>
-      <c r="AZ15" s="109"/>
+      <c r="AX15" s="101"/>
+      <c r="AY15" s="101"/>
+      <c r="AZ15" s="101"/>
       <c r="BA15" s="14"/>
       <c r="BB15" s="14"/>
-      <c r="BC15" s="109"/>
-      <c r="BD15" s="109"/>
-      <c r="BE15" s="109"/>
+      <c r="BC15" s="101"/>
+      <c r="BD15" s="101"/>
+      <c r="BE15" s="101"/>
     </row>
     <row r="16" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="103" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="102"/>
-      <c r="K16" s="106" t="s">
-        <v>192</v>
-      </c>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="106" t="s">
+      <c r="B16" s="103"/>
+      <c r="C16" s="104" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="103"/>
+      <c r="K16" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="107" t="s">
+        <v>189</v>
+      </c>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="107" t="s">
         <v>193</v>
       </c>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="108"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="109"/>
       <c r="AG16" s="129" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AH16" s="129"/>
       <c r="AI16" s="129"/>
       <c r="AJ16" s="129"/>
       <c r="AK16" s="130"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="109"/>
-      <c r="AO16" s="109"/>
-      <c r="AP16" s="109"/>
+      <c r="AL16" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM16" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN16" s="101"/>
+      <c r="AO16" s="101"/>
+      <c r="AP16" s="101"/>
       <c r="AQ16" s="14"/>
       <c r="AR16" s="14"/>
-      <c r="AS16" s="109"/>
-      <c r="AT16" s="109"/>
-      <c r="AU16" s="109"/>
+      <c r="AS16" s="101"/>
+      <c r="AT16" s="101"/>
+      <c r="AU16" s="101"/>
       <c r="AV16" s="14"/>
       <c r="AW16" s="14"/>
-      <c r="AX16" s="109"/>
-      <c r="AY16" s="109"/>
-      <c r="AZ16" s="109"/>
+      <c r="AX16" s="101"/>
+      <c r="AY16" s="101"/>
+      <c r="AZ16" s="101"/>
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
-      <c r="BC16" s="109"/>
-      <c r="BD16" s="109"/>
-      <c r="BE16" s="109"/>
+      <c r="BC16" s="101"/>
+      <c r="BD16" s="101"/>
+      <c r="BE16" s="101"/>
     </row>
     <row r="17" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="102"/>
-      <c r="K17" s="106" t="s">
+      <c r="B17" s="103"/>
+      <c r="C17" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="106" t="s">
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="103"/>
+      <c r="K17" s="107" t="s">
+        <v>188</v>
+      </c>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="109"/>
-      <c r="AO17" s="109"/>
-      <c r="AP17" s="109"/>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="109"/>
+      <c r="AL17" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM17" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN17" s="101"/>
+      <c r="AO17" s="101"/>
+      <c r="AP17" s="101"/>
       <c r="AQ17" s="14"/>
       <c r="AR17" s="14"/>
-      <c r="AS17" s="109"/>
-      <c r="AT17" s="109"/>
-      <c r="AU17" s="109"/>
+      <c r="AS17" s="101"/>
+      <c r="AT17" s="101"/>
+      <c r="AU17" s="101"/>
       <c r="AV17" s="14"/>
       <c r="AW17" s="14"/>
-      <c r="AX17" s="109"/>
-      <c r="AY17" s="109"/>
-      <c r="AZ17" s="109"/>
+      <c r="AX17" s="101"/>
+      <c r="AY17" s="101"/>
+      <c r="AZ17" s="101"/>
       <c r="BA17" s="14"/>
       <c r="BB17" s="14"/>
-      <c r="BC17" s="109"/>
-      <c r="BD17" s="109"/>
-      <c r="BE17" s="109"/>
+      <c r="BC17" s="101"/>
+      <c r="BD17" s="101"/>
+      <c r="BE17" s="101"/>
     </row>
     <row r="18" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="103"/>
+      <c r="K18" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="102"/>
-      <c r="K18" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="106" t="s">
-        <v>204</v>
-      </c>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="106" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="107" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="108"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="109"/>
-      <c r="AO18" s="109"/>
-      <c r="AP18" s="109"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB18" s="108"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="108"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="109"/>
+      <c r="AG18" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="108"/>
+      <c r="AJ18" s="108"/>
+      <c r="AK18" s="109"/>
+      <c r="AL18" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM18" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN18" s="101"/>
+      <c r="AO18" s="101"/>
+      <c r="AP18" s="101"/>
       <c r="AQ18" s="14"/>
       <c r="AR18" s="14"/>
-      <c r="AS18" s="109"/>
-      <c r="AT18" s="109"/>
-      <c r="AU18" s="109"/>
+      <c r="AS18" s="101"/>
+      <c r="AT18" s="101"/>
+      <c r="AU18" s="101"/>
       <c r="AV18" s="14"/>
       <c r="AW18" s="14"/>
-      <c r="AX18" s="109"/>
-      <c r="AY18" s="109"/>
-      <c r="AZ18" s="109"/>
+      <c r="AX18" s="101"/>
+      <c r="AY18" s="101"/>
+      <c r="AZ18" s="101"/>
       <c r="BA18" s="14"/>
       <c r="BB18" s="14"/>
-      <c r="BC18" s="109"/>
-      <c r="BD18" s="109"/>
-      <c r="BE18" s="109"/>
+      <c r="BC18" s="101"/>
+      <c r="BD18" s="101"/>
+      <c r="BE18" s="101"/>
     </row>
     <row r="19" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103" t="s">
+      <c r="B19" s="103"/>
+      <c r="C19" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="103"/>
+      <c r="K19" s="107" t="s">
+        <v>276</v>
+      </c>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="102"/>
-      <c r="K19" s="106" t="s">
-        <v>280</v>
-      </c>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="106" t="s">
-        <v>204</v>
-      </c>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="106" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="107" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH19" s="107"/>
-      <c r="AI19" s="107"/>
-      <c r="AJ19" s="107"/>
-      <c r="AK19" s="108"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="109"/>
-      <c r="AO19" s="109"/>
-      <c r="AP19" s="109"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="108"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="109"/>
+      <c r="AA19" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB19" s="108"/>
+      <c r="AC19" s="108"/>
+      <c r="AD19" s="108"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="109"/>
+      <c r="AG19" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="108"/>
+      <c r="AJ19" s="108"/>
+      <c r="AK19" s="109"/>
+      <c r="AL19" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM19" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN19" s="101"/>
+      <c r="AO19" s="101"/>
+      <c r="AP19" s="101"/>
       <c r="AQ19" s="14"/>
       <c r="AR19" s="14"/>
-      <c r="AS19" s="109"/>
-      <c r="AT19" s="109"/>
-      <c r="AU19" s="109"/>
+      <c r="AS19" s="101"/>
+      <c r="AT19" s="101"/>
+      <c r="AU19" s="101"/>
       <c r="AV19" s="14"/>
       <c r="AW19" s="14"/>
-      <c r="AX19" s="109"/>
-      <c r="AY19" s="109"/>
-      <c r="AZ19" s="109"/>
+      <c r="AX19" s="101"/>
+      <c r="AY19" s="101"/>
+      <c r="AZ19" s="101"/>
       <c r="BA19" s="14"/>
       <c r="BB19" s="14"/>
-      <c r="BC19" s="109"/>
-      <c r="BD19" s="109"/>
-      <c r="BE19" s="109"/>
+      <c r="BC19" s="101"/>
+      <c r="BD19" s="101"/>
+      <c r="BE19" s="101"/>
     </row>
     <row r="20" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="101" t="s">
-        <v>276</v>
-      </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103" t="s">
+      <c r="A20" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="103"/>
+      <c r="K20" s="107" t="s">
+        <v>277</v>
+      </c>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="102"/>
-      <c r="K20" s="106" t="s">
-        <v>281</v>
-      </c>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="106" t="s">
-        <v>204</v>
-      </c>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="106" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="107" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH20" s="107"/>
-      <c r="AI20" s="107"/>
-      <c r="AJ20" s="107"/>
-      <c r="AK20" s="108"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="109"/>
-      <c r="AO20" s="109"/>
-      <c r="AP20" s="109"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="108"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM20" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN20" s="101"/>
+      <c r="AO20" s="101"/>
+      <c r="AP20" s="101"/>
       <c r="AQ20" s="14"/>
       <c r="AR20" s="14"/>
-      <c r="AS20" s="109"/>
-      <c r="AT20" s="109"/>
-      <c r="AU20" s="109"/>
+      <c r="AS20" s="101"/>
+      <c r="AT20" s="101"/>
+      <c r="AU20" s="101"/>
       <c r="AV20" s="14"/>
       <c r="AW20" s="14"/>
-      <c r="AX20" s="109"/>
-      <c r="AY20" s="109"/>
-      <c r="AZ20" s="109"/>
+      <c r="AX20" s="101"/>
+      <c r="AY20" s="101"/>
+      <c r="AZ20" s="101"/>
       <c r="BA20" s="14"/>
       <c r="BB20" s="14"/>
-      <c r="BC20" s="109"/>
-      <c r="BD20" s="109"/>
-      <c r="BE20" s="109"/>
+      <c r="BC20" s="101"/>
+      <c r="BD20" s="101"/>
+      <c r="BE20" s="101"/>
     </row>
     <row r="21" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="101" t="s">
-        <v>277</v>
-      </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="103" t="s">
+      <c r="A21" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="103"/>
+      <c r="K21" s="107" t="s">
+        <v>278</v>
+      </c>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="102"/>
-      <c r="K21" s="106" t="s">
-        <v>282</v>
-      </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="106" t="s">
-        <v>204</v>
-      </c>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="106" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="107" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH21" s="107"/>
-      <c r="AI21" s="107"/>
-      <c r="AJ21" s="107"/>
-      <c r="AK21" s="108"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="109"/>
-      <c r="AO21" s="109"/>
-      <c r="AP21" s="109"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="107" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB21" s="108"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="109"/>
+      <c r="AG21" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="108"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM21" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN21" s="101"/>
+      <c r="AO21" s="101"/>
+      <c r="AP21" s="101"/>
       <c r="AQ21" s="14"/>
       <c r="AR21" s="14"/>
-      <c r="AS21" s="109"/>
-      <c r="AT21" s="109"/>
-      <c r="AU21" s="109"/>
+      <c r="AS21" s="101"/>
+      <c r="AT21" s="101"/>
+      <c r="AU21" s="101"/>
       <c r="AV21" s="14"/>
       <c r="AW21" s="14"/>
-      <c r="AX21" s="109"/>
-      <c r="AY21" s="109"/>
-      <c r="AZ21" s="109"/>
+      <c r="AX21" s="101"/>
+      <c r="AY21" s="101"/>
+      <c r="AZ21" s="101"/>
       <c r="BA21" s="14"/>
       <c r="BB21" s="14"/>
-      <c r="BC21" s="109"/>
-      <c r="BD21" s="109"/>
-      <c r="BE21" s="109"/>
+      <c r="BC21" s="101"/>
+      <c r="BD21" s="101"/>
+      <c r="BE21" s="101"/>
     </row>
     <row r="22" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="101" t="s">
-        <v>278</v>
-      </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="102"/>
-      <c r="K22" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="106" t="s">
+      <c r="A22" s="102" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="C22" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="103"/>
+      <c r="K22" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="107" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="108" t="s">
         <v>204</v>
       </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="106" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="107" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH22" s="107"/>
-      <c r="AI22" s="107"/>
-      <c r="AJ22" s="107"/>
-      <c r="AK22" s="108"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="109"/>
-      <c r="AO22" s="109"/>
-      <c r="AP22" s="109"/>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="109"/>
+      <c r="AL22" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM22" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN22" s="101"/>
+      <c r="AO22" s="101"/>
+      <c r="AP22" s="101"/>
       <c r="AQ22" s="14"/>
       <c r="AR22" s="14"/>
-      <c r="AS22" s="109"/>
-      <c r="AT22" s="109"/>
-      <c r="AU22" s="109"/>
+      <c r="AS22" s="101"/>
+      <c r="AT22" s="101"/>
+      <c r="AU22" s="101"/>
       <c r="AV22" s="14"/>
       <c r="AW22" s="14"/>
-      <c r="AX22" s="109"/>
-      <c r="AY22" s="109"/>
-      <c r="AZ22" s="109"/>
+      <c r="AX22" s="101"/>
+      <c r="AY22" s="101"/>
+      <c r="AZ22" s="101"/>
       <c r="BA22" s="14"/>
       <c r="BB22" s="14"/>
-      <c r="BC22" s="109"/>
-      <c r="BD22" s="109"/>
-      <c r="BE22" s="109"/>
+      <c r="BC22" s="101"/>
+      <c r="BD22" s="101"/>
+      <c r="BE22" s="101"/>
     </row>
     <row r="23" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="101" t="s">
-        <v>279</v>
-      </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="103" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="102"/>
-      <c r="K23" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="106" t="s">
-        <v>204</v>
-      </c>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="106" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="107"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH23" s="107"/>
-      <c r="AI23" s="107"/>
-      <c r="AJ23" s="107"/>
-      <c r="AK23" s="108"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="109"/>
-      <c r="AO23" s="109"/>
-      <c r="AP23" s="109"/>
+      <c r="A23" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="103"/>
+      <c r="C23" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="103"/>
+      <c r="K23" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="107" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB23" s="108"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="109"/>
+      <c r="AG23" s="108" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="108"/>
+      <c r="AJ23" s="108"/>
+      <c r="AK23" s="109"/>
+      <c r="AL23" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM23" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN23" s="101"/>
+      <c r="AO23" s="101"/>
+      <c r="AP23" s="101"/>
       <c r="AQ23" s="14"/>
       <c r="AR23" s="14"/>
-      <c r="AS23" s="109"/>
-      <c r="AT23" s="109"/>
-      <c r="AU23" s="109"/>
+      <c r="AS23" s="101"/>
+      <c r="AT23" s="101"/>
+      <c r="AU23" s="101"/>
       <c r="AV23" s="14"/>
       <c r="AW23" s="14"/>
-      <c r="AX23" s="109"/>
-      <c r="AY23" s="109"/>
-      <c r="AZ23" s="109"/>
+      <c r="AX23" s="101"/>
+      <c r="AY23" s="101"/>
+      <c r="AZ23" s="101"/>
       <c r="BA23" s="14"/>
       <c r="BB23" s="14"/>
-      <c r="BC23" s="109"/>
-      <c r="BD23" s="109"/>
-      <c r="BE23" s="109"/>
+      <c r="BC23" s="101"/>
+      <c r="BD23" s="101"/>
+      <c r="BE23" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="197">
@@ -10725,8 +10800,6 @@
     <mergeCell ref="Q16:Z16"/>
     <mergeCell ref="C18:H18"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="AA15:AF15"/>
     <mergeCell ref="BC11:BE11"/>
     <mergeCell ref="AG12:AK12"/>
     <mergeCell ref="AN12:AP12"/>
@@ -10741,10 +10814,6 @@
     <mergeCell ref="AX13:AZ13"/>
     <mergeCell ref="AN14:AP14"/>
     <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:Z13"/>
-    <mergeCell ref="AA13:AF13"/>
     <mergeCell ref="AN13:AP13"/>
     <mergeCell ref="AG13:AK13"/>
     <mergeCell ref="Q12:Z12"/>
@@ -10752,6 +10821,8 @@
     <mergeCell ref="AA9:AK9"/>
     <mergeCell ref="AA10:AF10"/>
     <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="AA15:AF15"/>
     <mergeCell ref="A4:C6"/>
     <mergeCell ref="K9:P10"/>
     <mergeCell ref="AA14:AF14"/>
@@ -10772,6 +10843,10 @@
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="Q14:Z14"/>
     <mergeCell ref="K14:P14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="AA13:AF13"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="I19:J19"/>
@@ -10782,6 +10857,17 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:P22"/>
     <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AX23:AZ23"/>
     <mergeCell ref="AA19:AF19"/>
     <mergeCell ref="AA22:AF22"/>
     <mergeCell ref="AG22:AK22"/>
@@ -10800,6 +10886,13 @@
     <mergeCell ref="AS19:AU19"/>
     <mergeCell ref="AX19:AZ19"/>
     <mergeCell ref="BC19:BE19"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AN21:AP21"/>
+    <mergeCell ref="AS21:AU21"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AN20:AP20"/>
+    <mergeCell ref="AS20:AU20"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="I23:J23"/>
@@ -10808,25 +10901,7 @@
     <mergeCell ref="AG23:AK23"/>
     <mergeCell ref="AN23:AP23"/>
     <mergeCell ref="AS23:AU23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:Z21"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AN21:AP21"/>
-    <mergeCell ref="AS21:AU21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:Z20"/>
-    <mergeCell ref="AA20:AF20"/>
     <mergeCell ref="AG20:AK20"/>
-    <mergeCell ref="AN20:AP20"/>
-    <mergeCell ref="AS20:AU20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="5">
@@ -10860,8 +10935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8CB211-CA0B-40BB-A1E4-10D330582BEF}">
   <dimension ref="A1:BE34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29:AK29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX17" sqref="AX17:AZ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10887,42 +10962,42 @@
       <c r="B2" s="147"/>
       <c r="C2" s="148"/>
       <c r="D2" s="143" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="144"/>
       <c r="F2" s="144"/>
       <c r="G2" s="145"/>
-      <c r="H2" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
+      <c r="H2" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
       <c r="K2" s="140" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L2" s="141"/>
       <c r="M2" s="141"/>
       <c r="N2" s="141"/>
       <c r="O2" s="142"/>
-      <c r="P2" s="123" t="s">
+      <c r="P2" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
       <c r="S2" s="140" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="T2" s="141"/>
       <c r="U2" s="141"/>
       <c r="V2" s="141"/>
       <c r="W2" s="142"/>
-      <c r="X2" s="123" t="s">
+      <c r="X2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
       <c r="AA2" s="143" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AB2" s="144"/>
       <c r="AC2" s="144"/>
@@ -10956,11 +11031,11 @@
       <c r="AW2" s="136"/>
       <c r="AX2" s="136"/>
       <c r="AY2" s="136"/>
-      <c r="AZ2" s="117" t="s">
+      <c r="AZ2" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="BA2" s="118"/>
-      <c r="BB2" s="119"/>
+      <c r="BA2" s="124"/>
+      <c r="BB2" s="125"/>
       <c r="BC2" s="136" t="s">
         <v>32</v>
       </c>
@@ -10974,7 +11049,7 @@
       <c r="B3" s="147"/>
       <c r="C3" s="148"/>
       <c r="D3" s="149" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E3" s="149"/>
       <c r="F3" s="149"/>
@@ -11021,25 +11096,31 @@
       <c r="AS3" s="134"/>
       <c r="AT3" s="133"/>
       <c r="AU3" s="133"/>
-      <c r="AV3" s="135"/>
+      <c r="AV3" s="135">
+        <v>43866</v>
+      </c>
       <c r="AW3" s="135"/>
       <c r="AX3" s="135"/>
       <c r="AY3" s="135"/>
-      <c r="AZ3" s="132"/>
+      <c r="AZ3" s="132" t="s">
+        <v>358</v>
+      </c>
       <c r="BA3" s="129"/>
       <c r="BB3" s="130"/>
-      <c r="BC3" s="131"/>
+      <c r="BC3" s="131" t="s">
+        <v>359</v>
+      </c>
       <c r="BD3" s="131"/>
       <c r="BE3" s="131"/>
     </row>
     <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="150" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E4" s="150"/>
       <c r="F4" s="150"/>
@@ -11086,21 +11167,27 @@
       <c r="AS4" s="134"/>
       <c r="AT4" s="133"/>
       <c r="AU4" s="133"/>
-      <c r="AV4" s="135"/>
+      <c r="AV4" s="135">
+        <v>43867</v>
+      </c>
       <c r="AW4" s="135"/>
       <c r="AX4" s="135"/>
       <c r="AY4" s="135"/>
-      <c r="AZ4" s="132"/>
+      <c r="AZ4" s="132" t="s">
+        <v>358</v>
+      </c>
       <c r="BA4" s="129"/>
       <c r="BB4" s="130"/>
-      <c r="BC4" s="131"/>
+      <c r="BC4" s="131" t="s">
+        <v>360</v>
+      </c>
       <c r="BD4" s="131"/>
       <c r="BE4" s="131"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A5" s="123"/>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
+      <c r="A5" s="110"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="150"/>
       <c r="E5" s="150"/>
       <c r="F5" s="150"/>
@@ -11159,9 +11246,9 @@
       <c r="BE5" s="131"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.15">
-      <c r="A6" s="123"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
       <c r="D6" s="150"/>
       <c r="E6" s="150"/>
       <c r="F6" s="150"/>
@@ -11221,55 +11308,55 @@
     </row>
     <row r="8" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="118"/>
+      <c r="C9" s="136" t="s">
         <v>155</v>
-      </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="136" t="s">
-        <v>157</v>
       </c>
       <c r="D9" s="136"/>
       <c r="E9" s="136"/>
       <c r="F9" s="136"/>
       <c r="G9" s="136"/>
       <c r="H9" s="136"/>
-      <c r="I9" s="114" t="s">
+      <c r="I9" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="125"/>
-      <c r="K9" s="114" t="s">
+      <c r="J9" s="113"/>
+      <c r="K9" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="124"/>
-      <c r="M9" s="124"/>
-      <c r="N9" s="124"/>
-      <c r="O9" s="124"/>
-      <c r="P9" s="125"/>
-      <c r="Q9" s="114" t="s">
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="124"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="124"/>
-      <c r="U9" s="124"/>
-      <c r="V9" s="124"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="124"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="114" t="s">
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="115"/>
-      <c r="AC9" s="115"/>
-      <c r="AD9" s="115"/>
-      <c r="AE9" s="115"/>
-      <c r="AF9" s="115"/>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="115"/>
-      <c r="AJ9" s="115"/>
-      <c r="AK9" s="116"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="121"/>
+      <c r="AH9" s="121"/>
+      <c r="AI9" s="121"/>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="122"/>
       <c r="AL9" s="136" t="s">
         <v>20</v>
       </c>
@@ -11300,47 +11387,47 @@
       <c r="BE9" s="136"/>
     </row>
     <row r="10" spans="1:57" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="112"/>
-      <c r="B10" s="113"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="136"/>
       <c r="D10" s="136"/>
       <c r="E10" s="136"/>
       <c r="F10" s="136"/>
       <c r="G10" s="136"/>
       <c r="H10" s="136"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="117" t="s">
+      <c r="I10" s="114"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="118"/>
-      <c r="AE10" s="118"/>
-      <c r="AF10" s="119"/>
-      <c r="AG10" s="120" t="s">
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="124"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="121"/>
-      <c r="AJ10" s="121"/>
-      <c r="AK10" s="122"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="127"/>
+      <c r="AJ10" s="127"/>
+      <c r="AK10" s="128"/>
       <c r="AL10" s="16" t="s">
         <v>11</v>
       </c>
@@ -11387,1759 +11474,1870 @@
       <c r="BE10" s="136"/>
     </row>
     <row r="11" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="103" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="103"/>
+      <c r="K11" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" s="102"/>
-      <c r="K11" s="106" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="108"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="109"/>
       <c r="AG11" s="129" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AH11" s="129"/>
       <c r="AI11" s="129"/>
       <c r="AJ11" s="129"/>
       <c r="AK11" s="130"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="109"/>
-      <c r="AO11" s="109"/>
-      <c r="AP11" s="109"/>
+      <c r="AL11" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM11" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN11" s="101"/>
+      <c r="AO11" s="101"/>
+      <c r="AP11" s="101"/>
       <c r="AQ11" s="14"/>
       <c r="AR11" s="14"/>
-      <c r="AS11" s="109"/>
-      <c r="AT11" s="109"/>
-      <c r="AU11" s="109"/>
+      <c r="AS11" s="101"/>
+      <c r="AT11" s="101"/>
+      <c r="AU11" s="101"/>
       <c r="AV11" s="14"/>
       <c r="AW11" s="14"/>
-      <c r="AX11" s="109"/>
-      <c r="AY11" s="109"/>
-      <c r="AZ11" s="109"/>
+      <c r="AX11" s="101"/>
+      <c r="AY11" s="101"/>
+      <c r="AZ11" s="101"/>
       <c r="BA11" s="14"/>
       <c r="BB11" s="14"/>
-      <c r="BC11" s="109"/>
-      <c r="BD11" s="109"/>
-      <c r="BE11" s="109"/>
+      <c r="BC11" s="101"/>
+      <c r="BD11" s="101"/>
+      <c r="BE11" s="101"/>
     </row>
     <row r="12" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="103" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="102"/>
-      <c r="K12" s="106" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="104" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="103"/>
+      <c r="K12" s="107" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="108"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="109"/>
+      <c r="AA12" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="106" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="107"/>
-      <c r="AE12" s="107"/>
-      <c r="AF12" s="108"/>
-      <c r="AG12" s="107" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH12" s="107"/>
-      <c r="AI12" s="107"/>
-      <c r="AJ12" s="107"/>
-      <c r="AK12" s="108"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="109"/>
-      <c r="AO12" s="109"/>
-      <c r="AP12" s="109"/>
+      <c r="AB12" s="108"/>
+      <c r="AC12" s="108"/>
+      <c r="AD12" s="108"/>
+      <c r="AE12" s="108"/>
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="108" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH12" s="108"/>
+      <c r="AI12" s="108"/>
+      <c r="AJ12" s="108"/>
+      <c r="AK12" s="109"/>
+      <c r="AL12" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM12" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN12" s="101"/>
+      <c r="AO12" s="101"/>
+      <c r="AP12" s="101"/>
       <c r="AQ12" s="14"/>
       <c r="AR12" s="14"/>
-      <c r="AS12" s="109"/>
-      <c r="AT12" s="109"/>
-      <c r="AU12" s="109"/>
+      <c r="AS12" s="101"/>
+      <c r="AT12" s="101"/>
+      <c r="AU12" s="101"/>
       <c r="AV12" s="14"/>
       <c r="AW12" s="14"/>
-      <c r="AX12" s="109"/>
-      <c r="AY12" s="109"/>
-      <c r="AZ12" s="109"/>
+      <c r="AX12" s="101"/>
+      <c r="AY12" s="101"/>
+      <c r="AZ12" s="101"/>
       <c r="BA12" s="14"/>
       <c r="BB12" s="14"/>
-      <c r="BC12" s="109"/>
-      <c r="BD12" s="109"/>
-      <c r="BE12" s="109"/>
+      <c r="BC12" s="101"/>
+      <c r="BD12" s="101"/>
+      <c r="BE12" s="101"/>
     </row>
     <row r="13" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="102" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="103"/>
+      <c r="K13" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="107" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="106" t="s">
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+      <c r="T13" s="108"/>
+      <c r="U13" s="108"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="108"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="109"/>
+      <c r="AA13" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="106" t="s">
-        <v>226</v>
-      </c>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="106" t="s">
-        <v>227</v>
-      </c>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="107"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="108"/>
-      <c r="AG13" s="107" t="s">
-        <v>228</v>
-      </c>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="107"/>
-      <c r="AK13" s="108"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="109"/>
-      <c r="AO13" s="109"/>
-      <c r="AP13" s="109"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="108"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="109"/>
+      <c r="AG13" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH13" s="108"/>
+      <c r="AI13" s="108"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="109"/>
+      <c r="AL13" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AM13" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN13" s="101"/>
+      <c r="AO13" s="101"/>
+      <c r="AP13" s="101"/>
       <c r="AQ13" s="14"/>
       <c r="AR13" s="14"/>
-      <c r="AS13" s="109"/>
-      <c r="AT13" s="109"/>
-      <c r="AU13" s="109"/>
+      <c r="AS13" s="101"/>
+      <c r="AT13" s="101"/>
+      <c r="AU13" s="101"/>
       <c r="AV13" s="14"/>
       <c r="AW13" s="14"/>
-      <c r="AX13" s="109"/>
-      <c r="AY13" s="109"/>
-      <c r="AZ13" s="109"/>
+      <c r="AX13" s="101"/>
+      <c r="AY13" s="101"/>
+      <c r="AZ13" s="101"/>
       <c r="BA13" s="14"/>
       <c r="BB13" s="14"/>
-      <c r="BC13" s="109"/>
-      <c r="BD13" s="109"/>
-      <c r="BE13" s="109"/>
+      <c r="BC13" s="101"/>
+      <c r="BD13" s="101"/>
+      <c r="BE13" s="101"/>
     </row>
     <row r="14" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="103" t="s">
-        <v>288</v>
-      </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="106" t="s">
-        <v>328</v>
-      </c>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="106" t="s">
+      <c r="B14" s="103"/>
+      <c r="C14" s="104" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="103"/>
+      <c r="K14" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="107" t="s">
+        <v>353</v>
+      </c>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+      <c r="T14" s="108"/>
+      <c r="U14" s="108"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="108"/>
+      <c r="X14" s="108"/>
+      <c r="Y14" s="108"/>
+      <c r="Z14" s="109"/>
+      <c r="AA14" s="107" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB14" s="108"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="108"/>
+      <c r="AE14" s="108"/>
+      <c r="AF14" s="109"/>
+      <c r="AG14" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH14" s="108"/>
+      <c r="AI14" s="108"/>
+      <c r="AJ14" s="108"/>
+      <c r="AK14" s="109"/>
+      <c r="AL14" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM14" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="107"/>
-      <c r="AJ14" s="107"/>
-      <c r="AK14" s="108"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="109"/>
-      <c r="AO14" s="109"/>
-      <c r="AP14" s="109"/>
       <c r="AQ14" s="14"/>
       <c r="AR14" s="14"/>
-      <c r="AS14" s="109"/>
-      <c r="AT14" s="109"/>
-      <c r="AU14" s="109"/>
+      <c r="AS14" s="101"/>
+      <c r="AT14" s="101"/>
+      <c r="AU14" s="101"/>
       <c r="AV14" s="14"/>
       <c r="AW14" s="14"/>
-      <c r="AX14" s="109"/>
-      <c r="AY14" s="109"/>
-      <c r="AZ14" s="109"/>
+      <c r="AX14" s="101"/>
+      <c r="AY14" s="101"/>
+      <c r="AZ14" s="101"/>
       <c r="BA14" s="14"/>
       <c r="BB14" s="14"/>
-      <c r="BC14" s="109"/>
-      <c r="BD14" s="109"/>
-      <c r="BE14" s="109"/>
+      <c r="BC14" s="101"/>
+      <c r="BD14" s="101"/>
+      <c r="BE14" s="101"/>
     </row>
     <row r="15" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="106" t="s">
+      <c r="B15" s="103"/>
+      <c r="C15" s="104" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="103"/>
+      <c r="K15" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="107" t="s">
+        <v>355</v>
+      </c>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+      <c r="T15" s="108"/>
+      <c r="U15" s="108"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
+      <c r="X15" s="108"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="109"/>
+      <c r="AA15" s="107" t="s">
         <v>329</v>
       </c>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="108"/>
-      <c r="AA15" s="106" t="s">
+      <c r="AB15" s="108"/>
+      <c r="AC15" s="108"/>
+      <c r="AD15" s="108"/>
+      <c r="AE15" s="108"/>
+      <c r="AF15" s="109"/>
+      <c r="AG15" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH15" s="108"/>
+      <c r="AI15" s="108"/>
+      <c r="AJ15" s="108"/>
+      <c r="AK15" s="109"/>
+      <c r="AL15" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM15" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH15" s="107"/>
-      <c r="AI15" s="107"/>
-      <c r="AJ15" s="107"/>
-      <c r="AK15" s="108"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="109"/>
-      <c r="AO15" s="109"/>
-      <c r="AP15" s="109"/>
+      <c r="AN15" s="101"/>
+      <c r="AO15" s="101"/>
+      <c r="AP15" s="101"/>
       <c r="AQ15" s="14"/>
       <c r="AR15" s="14"/>
-      <c r="AS15" s="109"/>
-      <c r="AT15" s="109"/>
-      <c r="AU15" s="109"/>
+      <c r="AS15" s="101"/>
+      <c r="AT15" s="101"/>
+      <c r="AU15" s="101"/>
       <c r="AV15" s="14"/>
       <c r="AW15" s="14"/>
-      <c r="AX15" s="109"/>
-      <c r="AY15" s="109"/>
-      <c r="AZ15" s="109"/>
+      <c r="AX15" s="101"/>
+      <c r="AY15" s="101"/>
+      <c r="AZ15" s="101"/>
       <c r="BA15" s="14"/>
       <c r="BB15" s="14"/>
-      <c r="BC15" s="109"/>
-      <c r="BD15" s="109"/>
-      <c r="BE15" s="109"/>
+      <c r="BC15" s="101"/>
+      <c r="BD15" s="101"/>
+      <c r="BE15" s="101"/>
     </row>
     <row r="16" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" s="102"/>
-      <c r="K16" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="108"/>
-      <c r="Q16" s="106" t="s">
-        <v>339</v>
-      </c>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="106" t="s">
-        <v>338</v>
-      </c>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH16" s="107"/>
-      <c r="AI16" s="107"/>
-      <c r="AJ16" s="107"/>
-      <c r="AK16" s="108"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="109"/>
-      <c r="AO16" s="109"/>
-      <c r="AP16" s="109"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="109"/>
-      <c r="AT16" s="109"/>
-      <c r="AU16" s="109"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="103"/>
+      <c r="K16" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="107" t="s">
+        <v>351</v>
+      </c>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+      <c r="T16" s="108"/>
+      <c r="U16" s="108"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+      <c r="X16" s="108"/>
+      <c r="Y16" s="108"/>
+      <c r="Z16" s="109"/>
+      <c r="AA16" s="107" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="108"/>
+      <c r="AD16" s="108"/>
+      <c r="AE16" s="108"/>
+      <c r="AF16" s="109"/>
+      <c r="AG16" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH16" s="108"/>
+      <c r="AI16" s="108"/>
+      <c r="AJ16" s="108"/>
+      <c r="AK16" s="109"/>
+      <c r="AL16" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM16" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN16" s="151" t="s">
+        <v>357</v>
+      </c>
+      <c r="AO16" s="151"/>
+      <c r="AP16" s="151"/>
+      <c r="AQ16" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR16" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AS16" s="101"/>
+      <c r="AT16" s="101"/>
+      <c r="AU16" s="101"/>
       <c r="AV16" s="14"/>
       <c r="AW16" s="14"/>
-      <c r="AX16" s="109"/>
-      <c r="AY16" s="109"/>
-      <c r="AZ16" s="109"/>
+      <c r="AX16" s="101"/>
+      <c r="AY16" s="101"/>
+      <c r="AZ16" s="101"/>
       <c r="BA16" s="14"/>
       <c r="BB16" s="14"/>
-      <c r="BC16" s="109"/>
-      <c r="BD16" s="109"/>
-      <c r="BE16" s="109"/>
+      <c r="BC16" s="101"/>
+      <c r="BD16" s="101"/>
+      <c r="BE16" s="101"/>
     </row>
     <row r="17" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101" t="s">
-        <v>309</v>
-      </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="102"/>
-      <c r="K17" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="106" t="s">
-        <v>340</v>
-      </c>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="108"/>
-      <c r="AA17" s="106" t="s">
+      <c r="A17" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="103"/>
+      <c r="K17" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="107" t="s">
+        <v>352</v>
+      </c>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+      <c r="X17" s="108"/>
+      <c r="Y17" s="108"/>
+      <c r="Z17" s="109"/>
+      <c r="AA17" s="107" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB17" s="108"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="108"/>
+      <c r="AE17" s="108"/>
+      <c r="AF17" s="109"/>
+      <c r="AG17" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH17" s="108"/>
+      <c r="AI17" s="108"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="109"/>
+      <c r="AL17" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM17" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="109"/>
-      <c r="AO17" s="109"/>
-      <c r="AP17" s="109"/>
+      <c r="AN17" s="101"/>
+      <c r="AO17" s="101"/>
+      <c r="AP17" s="101"/>
       <c r="AQ17" s="14"/>
       <c r="AR17" s="14"/>
-      <c r="AS17" s="109"/>
-      <c r="AT17" s="109"/>
-      <c r="AU17" s="109"/>
+      <c r="AS17" s="101"/>
+      <c r="AT17" s="101"/>
+      <c r="AU17" s="101"/>
       <c r="AV17" s="14"/>
       <c r="AW17" s="14"/>
-      <c r="AX17" s="109"/>
-      <c r="AY17" s="109"/>
-      <c r="AZ17" s="109"/>
+      <c r="AX17" s="101"/>
+      <c r="AY17" s="101"/>
+      <c r="AZ17" s="101"/>
       <c r="BA17" s="14"/>
       <c r="BB17" s="14"/>
-      <c r="BC17" s="109"/>
-      <c r="BD17" s="109"/>
-      <c r="BE17" s="109"/>
+      <c r="BC17" s="101"/>
+      <c r="BD17" s="101"/>
+      <c r="BE17" s="101"/>
     </row>
     <row r="18" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="103" t="s">
-        <v>292</v>
-      </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="102"/>
-      <c r="K18" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="106" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="103"/>
+      <c r="K18" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="L18" s="108"/>
+      <c r="M18" s="108"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="107" t="s">
+        <v>354</v>
+      </c>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="108"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="108"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="108"/>
+      <c r="Z18" s="109"/>
+      <c r="AA18" s="107" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB18" s="108"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="108"/>
+      <c r="AE18" s="108"/>
+      <c r="AF18" s="109"/>
+      <c r="AG18" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH18" s="108"/>
+      <c r="AI18" s="108"/>
+      <c r="AJ18" s="108"/>
+      <c r="AK18" s="109"/>
+      <c r="AL18" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="108"/>
-      <c r="AA18" s="106" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="108"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="109"/>
-      <c r="AO18" s="109"/>
-      <c r="AP18" s="109"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="109"/>
-      <c r="AT18" s="109"/>
-      <c r="AU18" s="109"/>
+      <c r="AM18" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN18" s="151" t="s">
+        <v>357</v>
+      </c>
+      <c r="AO18" s="151"/>
+      <c r="AP18" s="151"/>
+      <c r="AQ18" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR18" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AS18" s="101"/>
+      <c r="AT18" s="101"/>
+      <c r="AU18" s="101"/>
       <c r="AV18" s="14"/>
       <c r="AW18" s="14"/>
-      <c r="AX18" s="109"/>
-      <c r="AY18" s="109"/>
-      <c r="AZ18" s="109"/>
+      <c r="AX18" s="101"/>
+      <c r="AY18" s="101"/>
+      <c r="AZ18" s="101"/>
       <c r="BA18" s="14"/>
       <c r="BB18" s="14"/>
-      <c r="BC18" s="109"/>
-      <c r="BD18" s="109"/>
-      <c r="BE18" s="109"/>
+      <c r="BC18" s="101"/>
+      <c r="BD18" s="101"/>
+      <c r="BE18" s="101"/>
     </row>
     <row r="19" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="103" t="s">
-        <v>292</v>
-      </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" s="102"/>
-      <c r="K19" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="106" t="s">
-        <v>342</v>
-      </c>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="106" t="s">
+      <c r="B19" s="103"/>
+      <c r="C19" s="104" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="103"/>
+      <c r="K19" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="107" t="s">
         <v>344</v>
       </c>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="107"/>
-      <c r="AE19" s="107"/>
-      <c r="AF19" s="108"/>
-      <c r="AG19" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH19" s="107"/>
-      <c r="AI19" s="107"/>
-      <c r="AJ19" s="107"/>
-      <c r="AK19" s="108"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="109"/>
-      <c r="AO19" s="109"/>
-      <c r="AP19" s="109"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="109"/>
-      <c r="AT19" s="109"/>
-      <c r="AU19" s="109"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="108"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="108"/>
+      <c r="W19" s="108"/>
+      <c r="X19" s="108"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="109"/>
+      <c r="AA19" s="107" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB19" s="108"/>
+      <c r="AC19" s="108"/>
+      <c r="AD19" s="108"/>
+      <c r="AE19" s="108"/>
+      <c r="AF19" s="109"/>
+      <c r="AG19" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH19" s="108"/>
+      <c r="AI19" s="108"/>
+      <c r="AJ19" s="108"/>
+      <c r="AK19" s="109"/>
+      <c r="AL19" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM19" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN19" s="151" t="s">
+        <v>357</v>
+      </c>
+      <c r="AO19" s="151"/>
+      <c r="AP19" s="151"/>
+      <c r="AQ19" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AR19" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AS19" s="101"/>
+      <c r="AT19" s="101"/>
+      <c r="AU19" s="101"/>
       <c r="AV19" s="14"/>
       <c r="AW19" s="14"/>
-      <c r="AX19" s="109"/>
-      <c r="AY19" s="109"/>
-      <c r="AZ19" s="109"/>
+      <c r="AX19" s="101"/>
+      <c r="AY19" s="101"/>
+      <c r="AZ19" s="101"/>
       <c r="BA19" s="14"/>
       <c r="BB19" s="14"/>
-      <c r="BC19" s="109"/>
-      <c r="BD19" s="109"/>
-      <c r="BE19" s="109"/>
+      <c r="BC19" s="101"/>
+      <c r="BD19" s="101"/>
+      <c r="BE19" s="101"/>
     </row>
     <row r="20" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="103" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="102"/>
-      <c r="K20" s="106" t="s">
-        <v>312</v>
-      </c>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="106" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="107"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH20" s="107"/>
-      <c r="AI20" s="107"/>
-      <c r="AJ20" s="107"/>
-      <c r="AK20" s="108"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="109"/>
-      <c r="AO20" s="109"/>
-      <c r="AP20" s="109"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="103"/>
+      <c r="K20" s="107" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="108"/>
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="108"/>
+      <c r="X20" s="108"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="109"/>
+      <c r="AA20" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB20" s="108"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+      <c r="AE20" s="108"/>
+      <c r="AF20" s="109"/>
+      <c r="AG20" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH20" s="108"/>
+      <c r="AI20" s="108"/>
+      <c r="AJ20" s="108"/>
+      <c r="AK20" s="109"/>
+      <c r="AL20" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM20" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN20" s="101"/>
+      <c r="AO20" s="101"/>
+      <c r="AP20" s="101"/>
       <c r="AQ20" s="14"/>
       <c r="AR20" s="14"/>
-      <c r="AS20" s="109"/>
-      <c r="AT20" s="109"/>
-      <c r="AU20" s="109"/>
+      <c r="AS20" s="101"/>
+      <c r="AT20" s="101"/>
+      <c r="AU20" s="101"/>
       <c r="AV20" s="14"/>
       <c r="AW20" s="14"/>
-      <c r="AX20" s="109"/>
-      <c r="AY20" s="109"/>
-      <c r="AZ20" s="109"/>
+      <c r="AX20" s="101"/>
+      <c r="AY20" s="101"/>
+      <c r="AZ20" s="101"/>
       <c r="BA20" s="14"/>
       <c r="BB20" s="14"/>
-      <c r="BC20" s="109"/>
-      <c r="BD20" s="109"/>
-      <c r="BE20" s="109"/>
+      <c r="BC20" s="101"/>
+      <c r="BD20" s="101"/>
+      <c r="BE20" s="101"/>
     </row>
     <row r="21" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="103" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="102"/>
-      <c r="K21" s="106" t="s">
-        <v>315</v>
-      </c>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="107"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="108"/>
-      <c r="AG21" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH21" s="107"/>
-      <c r="AI21" s="107"/>
-      <c r="AJ21" s="107"/>
-      <c r="AK21" s="108"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="109"/>
-      <c r="AO21" s="109"/>
-      <c r="AP21" s="109"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" s="103"/>
+      <c r="K21" s="107" t="s">
+        <v>308</v>
+      </c>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="109"/>
+      <c r="AA21" s="107" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB21" s="108"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="109"/>
+      <c r="AG21" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH21" s="108"/>
+      <c r="AI21" s="108"/>
+      <c r="AJ21" s="108"/>
+      <c r="AK21" s="109"/>
+      <c r="AL21" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM21" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN21" s="101"/>
+      <c r="AO21" s="101"/>
+      <c r="AP21" s="101"/>
       <c r="AQ21" s="14"/>
       <c r="AR21" s="14"/>
-      <c r="AS21" s="109"/>
-      <c r="AT21" s="109"/>
-      <c r="AU21" s="109"/>
+      <c r="AS21" s="101"/>
+      <c r="AT21" s="101"/>
+      <c r="AU21" s="101"/>
       <c r="AV21" s="14"/>
       <c r="AW21" s="14"/>
-      <c r="AX21" s="109"/>
-      <c r="AY21" s="109"/>
-      <c r="AZ21" s="109"/>
+      <c r="AX21" s="101"/>
+      <c r="AY21" s="101"/>
+      <c r="AZ21" s="101"/>
       <c r="BA21" s="14"/>
       <c r="BB21" s="14"/>
-      <c r="BC21" s="109"/>
-      <c r="BD21" s="109"/>
-      <c r="BE21" s="109"/>
+      <c r="BC21" s="101"/>
+      <c r="BD21" s="101"/>
+      <c r="BE21" s="101"/>
     </row>
     <row r="22" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103" t="s">
-        <v>294</v>
-      </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" s="102"/>
-      <c r="K22" s="106" t="s">
-        <v>314</v>
-      </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="108"/>
-      <c r="AA22" s="106" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="107"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="108"/>
-      <c r="AG22" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH22" s="107"/>
-      <c r="AI22" s="107"/>
-      <c r="AJ22" s="107"/>
-      <c r="AK22" s="108"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="109"/>
-      <c r="AO22" s="109"/>
-      <c r="AP22" s="109"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="103"/>
+      <c r="K22" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="109"/>
+      <c r="Q22" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+      <c r="T22" s="108"/>
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="108"/>
+      <c r="X22" s="108"/>
+      <c r="Y22" s="108"/>
+      <c r="Z22" s="109"/>
+      <c r="AA22" s="107" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB22" s="108"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="108"/>
+      <c r="AE22" s="108"/>
+      <c r="AF22" s="109"/>
+      <c r="AG22" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH22" s="108"/>
+      <c r="AI22" s="108"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="109"/>
+      <c r="AL22" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM22" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN22" s="101"/>
+      <c r="AO22" s="101"/>
+      <c r="AP22" s="101"/>
       <c r="AQ22" s="14"/>
       <c r="AR22" s="14"/>
-      <c r="AS22" s="109"/>
-      <c r="AT22" s="109"/>
-      <c r="AU22" s="109"/>
+      <c r="AS22" s="101"/>
+      <c r="AT22" s="101"/>
+      <c r="AU22" s="101"/>
       <c r="AV22" s="14"/>
       <c r="AW22" s="14"/>
-      <c r="AX22" s="109"/>
-      <c r="AY22" s="109"/>
-      <c r="AZ22" s="109"/>
+      <c r="AX22" s="101"/>
+      <c r="AY22" s="101"/>
+      <c r="AZ22" s="101"/>
       <c r="BA22" s="14"/>
       <c r="BB22" s="14"/>
-      <c r="BC22" s="109"/>
-      <c r="BD22" s="109"/>
-      <c r="BE22" s="109"/>
+      <c r="BC22" s="101"/>
+      <c r="BD22" s="101"/>
+      <c r="BE22" s="101"/>
     </row>
     <row r="23" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="103" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="102"/>
-      <c r="K23" s="106" t="s">
-        <v>313</v>
-      </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="108"/>
-      <c r="Q23" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="108"/>
-      <c r="AA23" s="106" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB23" s="107"/>
-      <c r="AC23" s="107"/>
-      <c r="AD23" s="107"/>
-      <c r="AE23" s="107"/>
-      <c r="AF23" s="108"/>
-      <c r="AG23" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH23" s="107"/>
-      <c r="AI23" s="107"/>
-      <c r="AJ23" s="107"/>
-      <c r="AK23" s="108"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="109"/>
-      <c r="AO23" s="109"/>
-      <c r="AP23" s="109"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="103"/>
+      <c r="K23" s="107" t="s">
+        <v>306</v>
+      </c>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="109"/>
+      <c r="Q23" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108"/>
+      <c r="W23" s="108"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="109"/>
+      <c r="AA23" s="107" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB23" s="108"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="109"/>
+      <c r="AG23" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH23" s="108"/>
+      <c r="AI23" s="108"/>
+      <c r="AJ23" s="108"/>
+      <c r="AK23" s="109"/>
+      <c r="AL23" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM23" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN23" s="101"/>
+      <c r="AO23" s="101"/>
+      <c r="AP23" s="101"/>
       <c r="AQ23" s="14"/>
       <c r="AR23" s="14"/>
-      <c r="AS23" s="109"/>
-      <c r="AT23" s="109"/>
-      <c r="AU23" s="109"/>
+      <c r="AS23" s="101"/>
+      <c r="AT23" s="101"/>
+      <c r="AU23" s="101"/>
       <c r="AV23" s="14"/>
       <c r="AW23" s="14"/>
-      <c r="AX23" s="109"/>
-      <c r="AY23" s="109"/>
-      <c r="AZ23" s="109"/>
+      <c r="AX23" s="101"/>
+      <c r="AY23" s="101"/>
+      <c r="AZ23" s="101"/>
       <c r="BA23" s="14"/>
       <c r="BB23" s="14"/>
-      <c r="BC23" s="109"/>
-      <c r="BD23" s="109"/>
-      <c r="BE23" s="109"/>
+      <c r="BC23" s="101"/>
+      <c r="BD23" s="101"/>
+      <c r="BE23" s="101"/>
     </row>
     <row r="24" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="102"/>
-      <c r="C24" s="103" t="s">
-        <v>295</v>
-      </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="102"/>
-      <c r="K24" s="106" t="s">
-        <v>312</v>
-      </c>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="108"/>
-      <c r="Q24" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="108"/>
-      <c r="AA24" s="106" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB24" s="107"/>
-      <c r="AC24" s="107"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="108"/>
-      <c r="AG24" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH24" s="107"/>
-      <c r="AI24" s="107"/>
-      <c r="AJ24" s="107"/>
-      <c r="AK24" s="108"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="109"/>
-      <c r="AO24" s="109"/>
-      <c r="AP24" s="109"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="104" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="103"/>
+      <c r="K24" s="107" t="s">
+        <v>305</v>
+      </c>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+      <c r="T24" s="108"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="108"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="108"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="109"/>
+      <c r="AA24" s="107" t="s">
+        <v>332</v>
+      </c>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="108"/>
+      <c r="AD24" s="108"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="109"/>
+      <c r="AG24" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH24" s="108"/>
+      <c r="AI24" s="108"/>
+      <c r="AJ24" s="108"/>
+      <c r="AK24" s="109"/>
+      <c r="AL24" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM24" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN24" s="101"/>
+      <c r="AO24" s="101"/>
+      <c r="AP24" s="101"/>
       <c r="AQ24" s="14"/>
       <c r="AR24" s="14"/>
-      <c r="AS24" s="109"/>
-      <c r="AT24" s="109"/>
-      <c r="AU24" s="109"/>
+      <c r="AS24" s="101"/>
+      <c r="AT24" s="101"/>
+      <c r="AU24" s="101"/>
       <c r="AV24" s="14"/>
       <c r="AW24" s="14"/>
-      <c r="AX24" s="109"/>
-      <c r="AY24" s="109"/>
-      <c r="AZ24" s="109"/>
+      <c r="AX24" s="101"/>
+      <c r="AY24" s="101"/>
+      <c r="AZ24" s="101"/>
       <c r="BA24" s="14"/>
       <c r="BB24" s="14"/>
-      <c r="BC24" s="109"/>
-      <c r="BD24" s="109"/>
-      <c r="BE24" s="109"/>
+      <c r="BC24" s="101"/>
+      <c r="BD24" s="101"/>
+      <c r="BE24" s="101"/>
     </row>
     <row r="25" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="102"/>
-      <c r="C25" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="102"/>
-      <c r="K25" s="106" t="s">
-        <v>312</v>
-      </c>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="108"/>
-      <c r="AA25" s="106" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="107"/>
-      <c r="AD25" s="107"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="108"/>
-      <c r="AG25" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH25" s="107"/>
-      <c r="AI25" s="107"/>
-      <c r="AJ25" s="107"/>
-      <c r="AK25" s="108"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="109"/>
-      <c r="AO25" s="109"/>
-      <c r="AP25" s="109"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="104" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="103"/>
+      <c r="K25" s="107" t="s">
+        <v>305</v>
+      </c>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+      <c r="T25" s="108"/>
+      <c r="U25" s="108"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="108"/>
+      <c r="X25" s="108"/>
+      <c r="Y25" s="108"/>
+      <c r="Z25" s="109"/>
+      <c r="AA25" s="107" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB25" s="108"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="108"/>
+      <c r="AE25" s="108"/>
+      <c r="AF25" s="109"/>
+      <c r="AG25" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH25" s="108"/>
+      <c r="AI25" s="108"/>
+      <c r="AJ25" s="108"/>
+      <c r="AK25" s="109"/>
+      <c r="AL25" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM25" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN25" s="101"/>
+      <c r="AO25" s="101"/>
+      <c r="AP25" s="101"/>
       <c r="AQ25" s="14"/>
       <c r="AR25" s="14"/>
-      <c r="AS25" s="109"/>
-      <c r="AT25" s="109"/>
-      <c r="AU25" s="109"/>
+      <c r="AS25" s="101"/>
+      <c r="AT25" s="101"/>
+      <c r="AU25" s="101"/>
       <c r="AV25" s="14"/>
       <c r="AW25" s="14"/>
-      <c r="AX25" s="109"/>
-      <c r="AY25" s="109"/>
-      <c r="AZ25" s="109"/>
+      <c r="AX25" s="101"/>
+      <c r="AY25" s="101"/>
+      <c r="AZ25" s="101"/>
       <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
-      <c r="BC25" s="109"/>
-      <c r="BD25" s="109"/>
-      <c r="BE25" s="109"/>
+      <c r="BC25" s="101"/>
+      <c r="BD25" s="101"/>
+      <c r="BE25" s="101"/>
     </row>
     <row r="26" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="102"/>
-      <c r="C26" s="103" t="s">
-        <v>301</v>
-      </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="102"/>
-      <c r="K26" s="106" t="s">
-        <v>317</v>
-      </c>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="106" t="s">
-        <v>318</v>
-      </c>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="108"/>
-      <c r="AA26" s="106" t="s">
-        <v>351</v>
-      </c>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="108"/>
-      <c r="AG26" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH26" s="107"/>
-      <c r="AI26" s="107"/>
-      <c r="AJ26" s="107"/>
-      <c r="AK26" s="108"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="109"/>
-      <c r="AO26" s="109"/>
-      <c r="AP26" s="109"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="104" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="103"/>
+      <c r="K26" s="107" t="s">
+        <v>310</v>
+      </c>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="107" t="s">
+        <v>311</v>
+      </c>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+      <c r="T26" s="108"/>
+      <c r="U26" s="108"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="108"/>
+      <c r="X26" s="108"/>
+      <c r="Y26" s="108"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB26" s="108"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="108"/>
+      <c r="AE26" s="108"/>
+      <c r="AF26" s="109"/>
+      <c r="AG26" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH26" s="108"/>
+      <c r="AI26" s="108"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="109"/>
+      <c r="AL26" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM26" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN26" s="101"/>
+      <c r="AO26" s="101"/>
+      <c r="AP26" s="101"/>
       <c r="AQ26" s="14"/>
       <c r="AR26" s="14"/>
-      <c r="AS26" s="109"/>
-      <c r="AT26" s="109"/>
-      <c r="AU26" s="109"/>
+      <c r="AS26" s="101"/>
+      <c r="AT26" s="101"/>
+      <c r="AU26" s="101"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="14"/>
-      <c r="AX26" s="109"/>
-      <c r="AY26" s="109"/>
-      <c r="AZ26" s="109"/>
+      <c r="AX26" s="101"/>
+      <c r="AY26" s="101"/>
+      <c r="AZ26" s="101"/>
       <c r="BA26" s="14"/>
       <c r="BB26" s="14"/>
-      <c r="BC26" s="109"/>
-      <c r="BD26" s="109"/>
-      <c r="BE26" s="109"/>
+      <c r="BC26" s="101"/>
+      <c r="BD26" s="101"/>
+      <c r="BE26" s="101"/>
     </row>
     <row r="27" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="102"/>
-      <c r="C27" s="103" t="s">
-        <v>300</v>
-      </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" s="102"/>
-      <c r="K27" s="106" t="s">
-        <v>319</v>
-      </c>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107"/>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="108"/>
-      <c r="AA27" s="106" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB27" s="107"/>
-      <c r="AC27" s="107"/>
-      <c r="AD27" s="107"/>
-      <c r="AE27" s="107"/>
-      <c r="AF27" s="108"/>
-      <c r="AG27" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH27" s="107"/>
-      <c r="AI27" s="107"/>
-      <c r="AJ27" s="107"/>
-      <c r="AK27" s="108"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="109"/>
-      <c r="AO27" s="109"/>
-      <c r="AP27" s="109"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="104" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" s="103"/>
+      <c r="K27" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="R27" s="108"/>
+      <c r="S27" s="108"/>
+      <c r="T27" s="108"/>
+      <c r="U27" s="108"/>
+      <c r="V27" s="108"/>
+      <c r="W27" s="108"/>
+      <c r="X27" s="108"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="109"/>
+      <c r="AA27" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB27" s="108"/>
+      <c r="AC27" s="108"/>
+      <c r="AD27" s="108"/>
+      <c r="AE27" s="108"/>
+      <c r="AF27" s="109"/>
+      <c r="AG27" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH27" s="108"/>
+      <c r="AI27" s="108"/>
+      <c r="AJ27" s="108"/>
+      <c r="AK27" s="109"/>
+      <c r="AL27" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM27" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN27" s="101"/>
+      <c r="AO27" s="101"/>
+      <c r="AP27" s="101"/>
       <c r="AQ27" s="14"/>
       <c r="AR27" s="14"/>
-      <c r="AS27" s="109"/>
-      <c r="AT27" s="109"/>
-      <c r="AU27" s="109"/>
+      <c r="AS27" s="101"/>
+      <c r="AT27" s="101"/>
+      <c r="AU27" s="101"/>
       <c r="AV27" s="14"/>
       <c r="AW27" s="14"/>
-      <c r="AX27" s="109"/>
-      <c r="AY27" s="109"/>
-      <c r="AZ27" s="109"/>
+      <c r="AX27" s="101"/>
+      <c r="AY27" s="101"/>
+      <c r="AZ27" s="101"/>
       <c r="BA27" s="14"/>
       <c r="BB27" s="14"/>
-      <c r="BC27" s="109"/>
-      <c r="BD27" s="109"/>
-      <c r="BE27" s="109"/>
+      <c r="BC27" s="101"/>
+      <c r="BD27" s="101"/>
+      <c r="BE27" s="101"/>
     </row>
     <row r="28" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="103" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="J28" s="102"/>
-      <c r="K28" s="106" t="s">
-        <v>320</v>
-      </c>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="107"/>
-      <c r="W28" s="107"/>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="107"/>
-      <c r="Z28" s="108"/>
-      <c r="AA28" s="106" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB28" s="107"/>
-      <c r="AC28" s="107"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="107"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH28" s="107"/>
-      <c r="AI28" s="107"/>
-      <c r="AJ28" s="107"/>
-      <c r="AK28" s="108"/>
-      <c r="AL28" s="14"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="109"/>
-      <c r="AO28" s="109"/>
-      <c r="AP28" s="109"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="104" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="103"/>
+      <c r="K28" s="107" t="s">
+        <v>313</v>
+      </c>
+      <c r="L28" s="108"/>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="109"/>
+      <c r="Q28" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="R28" s="108"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="108"/>
+      <c r="Y28" s="108"/>
+      <c r="Z28" s="109"/>
+      <c r="AA28" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB28" s="108"/>
+      <c r="AC28" s="108"/>
+      <c r="AD28" s="108"/>
+      <c r="AE28" s="108"/>
+      <c r="AF28" s="109"/>
+      <c r="AG28" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH28" s="108"/>
+      <c r="AI28" s="108"/>
+      <c r="AJ28" s="108"/>
+      <c r="AK28" s="109"/>
+      <c r="AL28" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM28" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN28" s="101"/>
+      <c r="AO28" s="101"/>
+      <c r="AP28" s="101"/>
       <c r="AQ28" s="14"/>
       <c r="AR28" s="14"/>
-      <c r="AS28" s="109"/>
-      <c r="AT28" s="109"/>
-      <c r="AU28" s="109"/>
+      <c r="AS28" s="101"/>
+      <c r="AT28" s="101"/>
+      <c r="AU28" s="101"/>
       <c r="AV28" s="14"/>
       <c r="AW28" s="14"/>
-      <c r="AX28" s="109"/>
-      <c r="AY28" s="109"/>
-      <c r="AZ28" s="109"/>
+      <c r="AX28" s="101"/>
+      <c r="AY28" s="101"/>
+      <c r="AZ28" s="101"/>
       <c r="BA28" s="14"/>
       <c r="BB28" s="14"/>
-      <c r="BC28" s="109"/>
-      <c r="BD28" s="109"/>
-      <c r="BE28" s="109"/>
+      <c r="BC28" s="101"/>
+      <c r="BD28" s="101"/>
+      <c r="BE28" s="101"/>
     </row>
     <row r="29" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="103" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="101" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="106" t="s">
-        <v>321</v>
-      </c>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="106" t="s">
-        <v>316</v>
-      </c>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="108"/>
-      <c r="AA29" s="106" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="107"/>
-      <c r="AD29" s="107"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="108"/>
-      <c r="AG29" s="107" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH29" s="107"/>
-      <c r="AI29" s="107"/>
-      <c r="AJ29" s="107"/>
-      <c r="AK29" s="108"/>
-      <c r="AL29" s="14"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="109"/>
-      <c r="AO29" s="109"/>
-      <c r="AP29" s="109"/>
+      <c r="A29" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B29" s="103"/>
+      <c r="C29" s="104" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="102" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="103"/>
+      <c r="K29" s="107" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="109"/>
+      <c r="Q29" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="R29" s="108"/>
+      <c r="S29" s="108"/>
+      <c r="T29" s="108"/>
+      <c r="U29" s="108"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="108"/>
+      <c r="Y29" s="108"/>
+      <c r="Z29" s="109"/>
+      <c r="AA29" s="107" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB29" s="108"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="108"/>
+      <c r="AE29" s="108"/>
+      <c r="AF29" s="109"/>
+      <c r="AG29" s="108" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH29" s="108"/>
+      <c r="AI29" s="108"/>
+      <c r="AJ29" s="108"/>
+      <c r="AK29" s="109"/>
+      <c r="AL29" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM29" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN29" s="101"/>
+      <c r="AO29" s="101"/>
+      <c r="AP29" s="101"/>
       <c r="AQ29" s="14"/>
       <c r="AR29" s="14"/>
-      <c r="AS29" s="109"/>
-      <c r="AT29" s="109"/>
-      <c r="AU29" s="109"/>
+      <c r="AS29" s="101"/>
+      <c r="AT29" s="101"/>
+      <c r="AU29" s="101"/>
       <c r="AV29" s="14"/>
       <c r="AW29" s="14"/>
-      <c r="AX29" s="109"/>
-      <c r="AY29" s="109"/>
-      <c r="AZ29" s="109"/>
+      <c r="AX29" s="101"/>
+      <c r="AY29" s="101"/>
+      <c r="AZ29" s="101"/>
       <c r="BA29" s="14"/>
       <c r="BB29" s="14"/>
-      <c r="BC29" s="109"/>
-      <c r="BD29" s="109"/>
-      <c r="BE29" s="109"/>
+      <c r="BC29" s="101"/>
+      <c r="BD29" s="101"/>
+      <c r="BE29" s="101"/>
     </row>
     <row r="30" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="103" t="s">
-        <v>303</v>
-      </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J30" s="102"/>
-      <c r="K30" s="106" t="s">
-        <v>322</v>
-      </c>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="106" t="s">
-        <v>323</v>
-      </c>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="107"/>
-      <c r="X30" s="107"/>
-      <c r="Y30" s="107"/>
-      <c r="Z30" s="108"/>
-      <c r="AA30" s="106" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="107"/>
-      <c r="AD30" s="107"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="108"/>
-      <c r="AG30" s="107" t="s">
+      <c r="A30" s="102" t="s">
+        <v>291</v>
+      </c>
+      <c r="B30" s="103"/>
+      <c r="C30" s="104" t="s">
+        <v>296</v>
+      </c>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J30" s="103"/>
+      <c r="K30" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="109"/>
+      <c r="Q30" s="107" t="s">
+        <v>316</v>
+      </c>
+      <c r="R30" s="108"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="108"/>
+      <c r="Y30" s="108"/>
+      <c r="Z30" s="109"/>
+      <c r="AA30" s="107" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB30" s="108"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="108"/>
+      <c r="AE30" s="108"/>
+      <c r="AF30" s="109"/>
+      <c r="AG30" s="108" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH30" s="108"/>
+      <c r="AI30" s="108"/>
+      <c r="AJ30" s="108"/>
+      <c r="AK30" s="109"/>
+      <c r="AL30" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="AH30" s="107"/>
-      <c r="AI30" s="107"/>
-      <c r="AJ30" s="107"/>
-      <c r="AK30" s="108"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="109"/>
-      <c r="AO30" s="109"/>
-      <c r="AP30" s="109"/>
+      <c r="AM30" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN30" s="101"/>
+      <c r="AO30" s="101"/>
+      <c r="AP30" s="101"/>
       <c r="AQ30" s="14"/>
       <c r="AR30" s="14"/>
-      <c r="AS30" s="109"/>
-      <c r="AT30" s="109"/>
-      <c r="AU30" s="109"/>
+      <c r="AS30" s="101"/>
+      <c r="AT30" s="101"/>
+      <c r="AU30" s="101"/>
       <c r="AV30" s="14"/>
       <c r="AW30" s="14"/>
-      <c r="AX30" s="109"/>
-      <c r="AY30" s="109"/>
-      <c r="AZ30" s="109"/>
+      <c r="AX30" s="101"/>
+      <c r="AY30" s="101"/>
+      <c r="AZ30" s="101"/>
       <c r="BA30" s="14"/>
       <c r="BB30" s="14"/>
-      <c r="BC30" s="109"/>
-      <c r="BD30" s="109"/>
-      <c r="BE30" s="109"/>
+      <c r="BC30" s="101"/>
+      <c r="BD30" s="101"/>
+      <c r="BE30" s="101"/>
     </row>
     <row r="31" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="102" t="s">
+        <v>298</v>
+      </c>
+      <c r="B31" s="103"/>
+      <c r="C31" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="103" t="s">
-        <v>304</v>
-      </c>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J31" s="102"/>
-      <c r="K31" s="106" t="s">
-        <v>322</v>
-      </c>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="106" t="s">
-        <v>324</v>
-      </c>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="107"/>
-      <c r="X31" s="107"/>
-      <c r="Y31" s="107"/>
-      <c r="Z31" s="108"/>
-      <c r="AA31" s="106" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB31" s="107"/>
-      <c r="AC31" s="107"/>
-      <c r="AD31" s="107"/>
-      <c r="AE31" s="107"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="106" t="s">
-        <v>335</v>
-      </c>
-      <c r="AH31" s="107"/>
-      <c r="AI31" s="107"/>
-      <c r="AJ31" s="107"/>
-      <c r="AK31" s="108"/>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="109"/>
-      <c r="AO31" s="109"/>
-      <c r="AP31" s="109"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J31" s="103"/>
+      <c r="K31" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="107" t="s">
+        <v>317</v>
+      </c>
+      <c r="R31" s="108"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="108"/>
+      <c r="Y31" s="108"/>
+      <c r="Z31" s="109"/>
+      <c r="AA31" s="107" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB31" s="108"/>
+      <c r="AC31" s="108"/>
+      <c r="AD31" s="108"/>
+      <c r="AE31" s="108"/>
+      <c r="AF31" s="109"/>
+      <c r="AG31" s="107" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH31" s="108"/>
+      <c r="AI31" s="108"/>
+      <c r="AJ31" s="108"/>
+      <c r="AK31" s="109"/>
+      <c r="AL31" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM31" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN31" s="101"/>
+      <c r="AO31" s="101"/>
+      <c r="AP31" s="101"/>
       <c r="AQ31" s="14"/>
       <c r="AR31" s="14"/>
-      <c r="AS31" s="109"/>
-      <c r="AT31" s="109"/>
-      <c r="AU31" s="109"/>
+      <c r="AS31" s="101"/>
+      <c r="AT31" s="101"/>
+      <c r="AU31" s="101"/>
       <c r="AV31" s="14"/>
       <c r="AW31" s="14"/>
-      <c r="AX31" s="109"/>
-      <c r="AY31" s="109"/>
-      <c r="AZ31" s="109"/>
+      <c r="AX31" s="101"/>
+      <c r="AY31" s="101"/>
+      <c r="AZ31" s="101"/>
       <c r="BA31" s="14"/>
       <c r="BB31" s="14"/>
-      <c r="BC31" s="109"/>
-      <c r="BD31" s="109"/>
-      <c r="BE31" s="109"/>
+      <c r="BC31" s="101"/>
+      <c r="BD31" s="101"/>
+      <c r="BE31" s="101"/>
     </row>
     <row r="32" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="101" t="s">
-        <v>298</v>
-      </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="103" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J32" s="102"/>
-      <c r="K32" s="106" t="s">
-        <v>322</v>
-      </c>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="108"/>
-      <c r="Q32" s="106" t="s">
+      <c r="A32" s="102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="103"/>
+      <c r="C32" s="104" t="s">
+        <v>299</v>
+      </c>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="103"/>
+      <c r="K32" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="L32" s="108"/>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="107" t="s">
+        <v>318</v>
+      </c>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="108"/>
+      <c r="Y32" s="108"/>
+      <c r="Z32" s="109"/>
+      <c r="AA32" s="107" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB32" s="108"/>
+      <c r="AC32" s="108"/>
+      <c r="AD32" s="108"/>
+      <c r="AE32" s="108"/>
+      <c r="AF32" s="109"/>
+      <c r="AG32" s="108" t="s">
         <v>325</v>
       </c>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="106" t="s">
-        <v>333</v>
-      </c>
-      <c r="AB32" s="107"/>
-      <c r="AC32" s="107"/>
-      <c r="AD32" s="107"/>
-      <c r="AE32" s="107"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="107" t="s">
-        <v>334</v>
-      </c>
-      <c r="AH32" s="107"/>
-      <c r="AI32" s="107"/>
-      <c r="AJ32" s="107"/>
-      <c r="AK32" s="108"/>
-      <c r="AL32" s="14"/>
-      <c r="AM32" s="14"/>
-      <c r="AN32" s="109"/>
-      <c r="AO32" s="109"/>
-      <c r="AP32" s="109"/>
+      <c r="AH32" s="108"/>
+      <c r="AI32" s="108"/>
+      <c r="AJ32" s="108"/>
+      <c r="AK32" s="109"/>
+      <c r="AL32" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM32" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN32" s="101"/>
+      <c r="AO32" s="101"/>
+      <c r="AP32" s="101"/>
       <c r="AQ32" s="14"/>
       <c r="AR32" s="14"/>
-      <c r="AS32" s="109"/>
-      <c r="AT32" s="109"/>
-      <c r="AU32" s="109"/>
+      <c r="AS32" s="101"/>
+      <c r="AT32" s="101"/>
+      <c r="AU32" s="101"/>
       <c r="AV32" s="14"/>
       <c r="AW32" s="14"/>
-      <c r="AX32" s="109"/>
-      <c r="AY32" s="109"/>
-      <c r="AZ32" s="109"/>
+      <c r="AX32" s="101"/>
+      <c r="AY32" s="101"/>
+      <c r="AZ32" s="101"/>
       <c r="BA32" s="14"/>
       <c r="BB32" s="14"/>
-      <c r="BC32" s="109"/>
-      <c r="BD32" s="109"/>
-      <c r="BE32" s="109"/>
+      <c r="BC32" s="101"/>
+      <c r="BD32" s="101"/>
+      <c r="BE32" s="101"/>
     </row>
     <row r="33" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="101" t="s">
-        <v>305</v>
-      </c>
-      <c r="B33" s="102"/>
-      <c r="C33" s="103" t="s">
-        <v>307</v>
-      </c>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J33" s="102"/>
-      <c r="K33" s="106" t="s">
+      <c r="A33" s="102" t="s">
+        <v>345</v>
+      </c>
+      <c r="B33" s="103"/>
+      <c r="C33" s="104" t="s">
+        <v>300</v>
+      </c>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J33" s="103"/>
+      <c r="K33" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="107" t="s">
+        <v>319</v>
+      </c>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+      <c r="T33" s="108"/>
+      <c r="U33" s="108"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="108"/>
+      <c r="X33" s="108"/>
+      <c r="Y33" s="108"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="107" t="s">
         <v>322</v>
       </c>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="106" t="s">
-        <v>326</v>
-      </c>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="108"/>
-      <c r="AA33" s="106" t="s">
-        <v>331</v>
-      </c>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="107"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="107"/>
-      <c r="AF33" s="108"/>
-      <c r="AG33" s="107" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH33" s="107"/>
-      <c r="AI33" s="107"/>
-      <c r="AJ33" s="107"/>
-      <c r="AK33" s="108"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="109"/>
-      <c r="AO33" s="109"/>
-      <c r="AP33" s="109"/>
+      <c r="AB33" s="108"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="108"/>
+      <c r="AE33" s="108"/>
+      <c r="AF33" s="109"/>
+      <c r="AG33" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH33" s="108"/>
+      <c r="AI33" s="108"/>
+      <c r="AJ33" s="108"/>
+      <c r="AK33" s="109"/>
+      <c r="AL33" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM33" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN33" s="101"/>
+      <c r="AO33" s="101"/>
+      <c r="AP33" s="101"/>
       <c r="AQ33" s="14"/>
       <c r="AR33" s="14"/>
-      <c r="AS33" s="109"/>
-      <c r="AT33" s="109"/>
-      <c r="AU33" s="109"/>
+      <c r="AS33" s="101"/>
+      <c r="AT33" s="101"/>
+      <c r="AU33" s="101"/>
       <c r="AV33" s="14"/>
       <c r="AW33" s="14"/>
-      <c r="AX33" s="109"/>
-      <c r="AY33" s="109"/>
-      <c r="AZ33" s="109"/>
+      <c r="AX33" s="101"/>
+      <c r="AY33" s="101"/>
+      <c r="AZ33" s="101"/>
       <c r="BA33" s="14"/>
       <c r="BB33" s="14"/>
-      <c r="BC33" s="109"/>
-      <c r="BD33" s="109"/>
-      <c r="BE33" s="109"/>
+      <c r="BC33" s="101"/>
+      <c r="BD33" s="101"/>
+      <c r="BE33" s="101"/>
     </row>
     <row r="34" spans="1:57" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="101" t="s">
-        <v>310</v>
-      </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="103" t="s">
-        <v>308</v>
-      </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J34" s="102"/>
-      <c r="K34" s="106" t="s">
-        <v>322</v>
-      </c>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="107"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="106" t="s">
-        <v>327</v>
-      </c>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="107"/>
-      <c r="W34" s="107"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="108"/>
-      <c r="AA34" s="106" t="s">
-        <v>330</v>
-      </c>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="107"/>
-      <c r="AD34" s="107"/>
-      <c r="AE34" s="107"/>
-      <c r="AF34" s="108"/>
-      <c r="AG34" s="107" t="s">
-        <v>330</v>
-      </c>
-      <c r="AH34" s="107"/>
-      <c r="AI34" s="107"/>
-      <c r="AJ34" s="107"/>
-      <c r="AK34" s="108"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="109"/>
-      <c r="AO34" s="109"/>
-      <c r="AP34" s="109"/>
+      <c r="A34" s="102" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="J34" s="103"/>
+      <c r="K34" s="107" t="s">
+        <v>315</v>
+      </c>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="109"/>
+      <c r="Q34" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="R34" s="108"/>
+      <c r="S34" s="108"/>
+      <c r="T34" s="108"/>
+      <c r="U34" s="108"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="108"/>
+      <c r="X34" s="108"/>
+      <c r="Y34" s="108"/>
+      <c r="Z34" s="109"/>
+      <c r="AA34" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB34" s="108"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="108"/>
+      <c r="AE34" s="108"/>
+      <c r="AF34" s="109"/>
+      <c r="AG34" s="108" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH34" s="108"/>
+      <c r="AI34" s="108"/>
+      <c r="AJ34" s="108"/>
+      <c r="AK34" s="109"/>
+      <c r="AL34" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AM34" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN34" s="101"/>
+      <c r="AO34" s="101"/>
+      <c r="AP34" s="101"/>
       <c r="AQ34" s="14"/>
       <c r="AR34" s="14"/>
-      <c r="AS34" s="109"/>
-      <c r="AT34" s="109"/>
-      <c r="AU34" s="109"/>
+      <c r="AS34" s="101"/>
+      <c r="AT34" s="101"/>
+      <c r="AU34" s="101"/>
       <c r="AV34" s="14"/>
       <c r="AW34" s="14"/>
-      <c r="AX34" s="109"/>
-      <c r="AY34" s="109"/>
-      <c r="AZ34" s="109"/>
+      <c r="AX34" s="101"/>
+      <c r="AY34" s="101"/>
+      <c r="AZ34" s="101"/>
       <c r="BA34" s="14"/>
       <c r="BB34" s="14"/>
-      <c r="BC34" s="109"/>
-      <c r="BD34" s="109"/>
-      <c r="BE34" s="109"/>
+      <c r="BC34" s="101"/>
+      <c r="BD34" s="101"/>
+      <c r="BE34" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="318">
+  <mergeCells count="317">
     <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="BC2:BE2"/>
     <mergeCell ref="A3:C3"/>
@@ -13228,7 +13426,7 @@
     <mergeCell ref="Q13:Z13"/>
     <mergeCell ref="AA14:AF14"/>
     <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN16:AP16"/>
     <mergeCell ref="AS14:AU14"/>
     <mergeCell ref="AX14:AZ14"/>
     <mergeCell ref="BC14:BE14"/>
@@ -13250,7 +13448,6 @@
     <mergeCell ref="Q15:Z15"/>
     <mergeCell ref="AA16:AF16"/>
     <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AN16:AP16"/>
     <mergeCell ref="AS16:AU16"/>
     <mergeCell ref="AX16:AZ16"/>
     <mergeCell ref="BC16:BE16"/>
@@ -13464,12 +13661,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="S2:W2" xr:uid="{466ABBF5-E21A-4DCC-BBBC-08271CC4F460}">
       <formula1>"-,NFR-F-00n,NFR-U-00n,NFR-R-00n,NFR-E-00n,NFR-M-00n,NFR-P-00n"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BA11:BB34 AV11:AW34 AQ11:AR34 AL11:AM34" xr:uid="{ED364248-D557-4368-B43E-8C0AC9CA4C30}">
-      <formula1>"OK,NG,-"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" sqref="K2:O2" xr:uid="{D2488E81-D41E-47B0-A4EE-3B7BD0E4381D}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="AA2:AN2" xr:uid="{2F6F30C6-1D9A-4734-B10E-19D973CF4D8F}">
       <formula1>"HW設定確認テスト,HW動作確認テスト,MW設定確認テスト,MW動作確認テスト,疎通テスト,入出力バリエーションテスト,制御パステスト,静的解析,コンポーネント統合テスト,システム統合テスト,機能テスト,業務シナリオテスト,セキュリティテスト,ドキュメントテスト,サイクルテスト,ユーザビリティテスト,信頼性テスト,リカバリテスト,耐障害性テスト,性能テスト,ストレステスト,ボリュームテスト,ストレージテスト,監視テスト,構成テスト,インストールテスト"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL11:AM34 AV11:AW34 AQ11:AR34 BA11:BB34" xr:uid="{ED364248-D557-4368-B43E-8C0AC9CA4C30}">
+      <formula1>"OK,NG,-"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:J34" xr:uid="{051714BA-5EB6-4BA1-A66B-5516210DAA65}">
       <formula1>"正常系,異常系"</formula1>

--- a/doc/結合テスト/結合テスト仕様書.xlsx
+++ b/doc/結合テスト/結合テスト仕様書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47388BE-08F5-4912-9164-4FA949C16E03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40B33C2-87CE-4F34-A25D-0ADEC5FD26D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="503">
   <si>
     <t>テストID</t>
     <phoneticPr fontId="2"/>
@@ -4982,6 +4982,32 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>アクションセンターに残っている</t>
+    <rPh sb="10" eb="11">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>監視結果リストの要素数が10
+名前が設定の通り
+設定ファイルに記述した順番で通知される</t>
+    <rPh sb="36" eb="37">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツウチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -16500,8 +16526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D13A3DF-5758-46EA-9613-2E384EF1DA56}">
   <dimension ref="A1:BE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN26" sqref="AN26:AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16660,22 +16686,22 @@
       <c r="AR3" s="120"/>
       <c r="AS3" s="120"/>
       <c r="AT3" s="119" t="s">
-        <v>315</v>
+        <v>495</v>
       </c>
       <c r="AU3" s="119"/>
       <c r="AV3" s="121">
-        <v>43866</v>
+        <v>43889</v>
       </c>
       <c r="AW3" s="121"/>
       <c r="AX3" s="121"/>
       <c r="AY3" s="121"/>
       <c r="AZ3" s="118" t="s">
-        <v>253</v>
+        <v>496</v>
       </c>
       <c r="BA3" s="115"/>
       <c r="BB3" s="116"/>
       <c r="BC3" s="117" t="s">
-        <v>254</v>
+        <v>499</v>
       </c>
       <c r="BD3" s="117"/>
       <c r="BE3" s="117"/>
@@ -16732,24 +16758,16 @@
       <c r="AQ4" s="120"/>
       <c r="AR4" s="120"/>
       <c r="AS4" s="120"/>
-      <c r="AT4" s="119" t="s">
-        <v>316</v>
-      </c>
+      <c r="AT4" s="119"/>
       <c r="AU4" s="119"/>
-      <c r="AV4" s="121">
-        <v>43868</v>
-      </c>
+      <c r="AV4" s="121"/>
       <c r="AW4" s="121"/>
       <c r="AX4" s="121"/>
       <c r="AY4" s="121"/>
-      <c r="AZ4" s="118" t="s">
-        <v>253</v>
-      </c>
+      <c r="AZ4" s="118"/>
       <c r="BA4" s="115"/>
       <c r="BB4" s="116"/>
-      <c r="BC4" s="117" t="s">
-        <v>317</v>
-      </c>
+      <c r="BC4" s="117"/>
       <c r="BD4" s="117"/>
       <c r="BE4" s="117"/>
     </row>
@@ -16801,24 +16819,16 @@
       <c r="AQ5" s="120"/>
       <c r="AR5" s="120"/>
       <c r="AS5" s="120"/>
-      <c r="AT5" s="119" t="s">
-        <v>372</v>
-      </c>
+      <c r="AT5" s="119"/>
       <c r="AU5" s="119"/>
-      <c r="AV5" s="121">
-        <v>43873</v>
-      </c>
+      <c r="AV5" s="121"/>
       <c r="AW5" s="121"/>
       <c r="AX5" s="121"/>
       <c r="AY5" s="121"/>
-      <c r="AZ5" s="118" t="s">
-        <v>253</v>
-      </c>
+      <c r="AZ5" s="118"/>
       <c r="BA5" s="115"/>
       <c r="BB5" s="116"/>
-      <c r="BC5" s="117" t="s">
-        <v>388</v>
-      </c>
+      <c r="BC5" s="117"/>
       <c r="BD5" s="117"/>
       <c r="BE5" s="117"/>
     </row>
@@ -17394,8 +17404,12 @@
       <c r="AI15" s="88"/>
       <c r="AJ15" s="88"/>
       <c r="AK15" s="89"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
+      <c r="AL15" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM15" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN15" s="86"/>
       <c r="AO15" s="86"/>
       <c r="AP15" s="86"/>
@@ -17464,8 +17478,12 @@
       <c r="AI16" s="88"/>
       <c r="AJ16" s="88"/>
       <c r="AK16" s="89"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
+      <c r="AL16" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM16" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN16" s="86"/>
       <c r="AO16" s="86"/>
       <c r="AP16" s="86"/>
@@ -17537,8 +17555,12 @@
       <c r="AI17" s="88"/>
       <c r="AJ17" s="88"/>
       <c r="AK17" s="89"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
+      <c r="AL17" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM17" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN17" s="86"/>
       <c r="AO17" s="86"/>
       <c r="AP17" s="86"/>
@@ -17610,8 +17632,12 @@
       <c r="AI18" s="88"/>
       <c r="AJ18" s="88"/>
       <c r="AK18" s="89"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
+      <c r="AL18" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM18" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN18" s="86"/>
       <c r="AO18" s="86"/>
       <c r="AP18" s="86"/>
@@ -17683,8 +17709,12 @@
       <c r="AI19" s="88"/>
       <c r="AJ19" s="88"/>
       <c r="AK19" s="89"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
+      <c r="AL19" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM19" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN19" s="86"/>
       <c r="AO19" s="86"/>
       <c r="AP19" s="86"/>
@@ -17756,8 +17786,12 @@
       <c r="AI20" s="88"/>
       <c r="AJ20" s="88"/>
       <c r="AK20" s="89"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
+      <c r="AL20" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM20" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN20" s="86"/>
       <c r="AO20" s="86"/>
       <c r="AP20" s="86"/>
@@ -17829,8 +17863,12 @@
       <c r="AI21" s="88"/>
       <c r="AJ21" s="88"/>
       <c r="AK21" s="89"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
+      <c r="AL21" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM21" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN21" s="86"/>
       <c r="AO21" s="86"/>
       <c r="AP21" s="86"/>
@@ -17902,8 +17940,12 @@
       <c r="AI22" s="88"/>
       <c r="AJ22" s="88"/>
       <c r="AK22" s="89"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
+      <c r="AL22" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM22" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN22" s="86"/>
       <c r="AO22" s="86"/>
       <c r="AP22" s="86"/>
@@ -17975,8 +18017,12 @@
       <c r="AI23" s="88"/>
       <c r="AJ23" s="88"/>
       <c r="AK23" s="89"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
+      <c r="AL23" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN23" s="86"/>
       <c r="AO23" s="86"/>
       <c r="AP23" s="86"/>
@@ -18048,8 +18094,12 @@
       <c r="AI24" s="88"/>
       <c r="AJ24" s="88"/>
       <c r="AK24" s="89"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
+      <c r="AL24" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM24" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN24" s="86"/>
       <c r="AO24" s="86"/>
       <c r="AP24" s="86"/>
@@ -18121,8 +18171,12 @@
       <c r="AI25" s="88"/>
       <c r="AJ25" s="88"/>
       <c r="AK25" s="89"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
+      <c r="AL25" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM25" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN25" s="86"/>
       <c r="AO25" s="86"/>
       <c r="AP25" s="86"/>
@@ -18188,14 +18242,18 @@
       <c r="AE26" s="88"/>
       <c r="AF26" s="89"/>
       <c r="AG26" s="88" t="s">
-        <v>287</v>
+        <v>502</v>
       </c>
       <c r="AH26" s="88"/>
       <c r="AI26" s="88"/>
       <c r="AJ26" s="88"/>
       <c r="AK26" s="89"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
+      <c r="AL26" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM26" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN26" s="90"/>
       <c r="AO26" s="90"/>
       <c r="AP26" s="90"/>
@@ -18267,8 +18325,12 @@
       <c r="AI27" s="88"/>
       <c r="AJ27" s="88"/>
       <c r="AK27" s="89"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
+      <c r="AL27" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AM27" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="AN27" s="90"/>
       <c r="AO27" s="90"/>
       <c r="AP27" s="90"/>
@@ -18340,9 +18402,15 @@
       <c r="AI28" s="88"/>
       <c r="AJ28" s="88"/>
       <c r="AK28" s="89"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="90"/>
+      <c r="AL28" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="AM28" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="AN28" s="90" t="s">
+        <v>501</v>
+      </c>
       <c r="AO28" s="90"/>
       <c r="AP28" s="90"/>
       <c r="AQ28" s="4"/>
